--- a/data/VR_MENSAL_GERADO.xlsx
+++ b/data/VR_MENSAL_GERADO.xlsx
@@ -510,10 +510,10 @@
         <v>880</v>
       </c>
       <c r="H2" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I2" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -32094,10 +32094,10 @@
         <v>880</v>
       </c>
       <c r="H979" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I979" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J979" t="inlineStr"/>
     </row>
@@ -32126,10 +32126,10 @@
         <v>880</v>
       </c>
       <c r="H980" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I980" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J980" t="inlineStr"/>
     </row>
@@ -32158,10 +32158,10 @@
         <v>880</v>
       </c>
       <c r="H981" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I981" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J981" t="inlineStr"/>
     </row>
@@ -32190,10 +32190,10 @@
         <v>880</v>
       </c>
       <c r="H982" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I982" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J982" t="inlineStr"/>
     </row>
@@ -32222,10 +32222,10 @@
         <v>880</v>
       </c>
       <c r="H983" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I983" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J983" t="inlineStr"/>
     </row>
@@ -32254,10 +32254,10 @@
         <v>880</v>
       </c>
       <c r="H984" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I984" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J984" t="inlineStr"/>
     </row>
@@ -32286,10 +32286,10 @@
         <v>880</v>
       </c>
       <c r="H985" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I985" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J985" t="inlineStr"/>
     </row>
@@ -32318,10 +32318,10 @@
         <v>880</v>
       </c>
       <c r="H986" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I986" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J986" t="inlineStr"/>
     </row>
@@ -32350,10 +32350,10 @@
         <v>880</v>
       </c>
       <c r="H987" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I987" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J987" t="inlineStr"/>
     </row>
@@ -32382,10 +32382,10 @@
         <v>880</v>
       </c>
       <c r="H988" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I988" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J988" t="inlineStr"/>
     </row>
@@ -32414,10 +32414,10 @@
         <v>880</v>
       </c>
       <c r="H989" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I989" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J989" t="inlineStr"/>
     </row>
@@ -32446,10 +32446,10 @@
         <v>880</v>
       </c>
       <c r="H990" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I990" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J990" t="inlineStr"/>
     </row>
@@ -32478,10 +32478,10 @@
         <v>880</v>
       </c>
       <c r="H991" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I991" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J991" t="inlineStr"/>
     </row>
@@ -32510,10 +32510,10 @@
         <v>880</v>
       </c>
       <c r="H992" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I992" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J992" t="inlineStr"/>
     </row>
@@ -32542,10 +32542,10 @@
         <v>880</v>
       </c>
       <c r="H993" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I993" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J993" t="inlineStr"/>
     </row>
@@ -32574,10 +32574,10 @@
         <v>880</v>
       </c>
       <c r="H994" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I994" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J994" t="inlineStr"/>
     </row>
@@ -32606,10 +32606,10 @@
         <v>880</v>
       </c>
       <c r="H995" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I995" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J995" t="inlineStr"/>
     </row>
@@ -32638,10 +32638,10 @@
         <v>880</v>
       </c>
       <c r="H996" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I996" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J996" t="inlineStr"/>
     </row>
@@ -32670,10 +32670,10 @@
         <v>880</v>
       </c>
       <c r="H997" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I997" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J997" t="inlineStr"/>
     </row>
@@ -32702,10 +32702,10 @@
         <v>880</v>
       </c>
       <c r="H998" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I998" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J998" t="inlineStr"/>
     </row>
@@ -32734,10 +32734,10 @@
         <v>880</v>
       </c>
       <c r="H999" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I999" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J999" t="inlineStr"/>
     </row>
@@ -32766,10 +32766,10 @@
         <v>880</v>
       </c>
       <c r="H1000" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1000" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1000" t="inlineStr"/>
     </row>
@@ -32830,10 +32830,10 @@
         <v>880</v>
       </c>
       <c r="H1002" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1002" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1002" t="inlineStr"/>
     </row>
@@ -32862,10 +32862,10 @@
         <v>880</v>
       </c>
       <c r="H1003" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1003" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1003" t="inlineStr"/>
     </row>
@@ -32894,10 +32894,10 @@
         <v>880</v>
       </c>
       <c r="H1004" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1004" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1004" t="inlineStr"/>
     </row>
@@ -32926,10 +32926,10 @@
         <v>880</v>
       </c>
       <c r="H1005" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1005" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1005" t="inlineStr"/>
     </row>
@@ -32958,10 +32958,10 @@
         <v>880</v>
       </c>
       <c r="H1006" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1006" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1006" t="inlineStr"/>
     </row>
@@ -32990,10 +32990,10 @@
         <v>880</v>
       </c>
       <c r="H1007" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1007" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1007" t="inlineStr"/>
     </row>
@@ -33022,10 +33022,10 @@
         <v>880</v>
       </c>
       <c r="H1008" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1008" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1008" t="inlineStr"/>
     </row>
@@ -33058,10 +33058,10 @@
         <v>880</v>
       </c>
       <c r="H1009" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1009" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1009" t="inlineStr"/>
     </row>
@@ -33090,10 +33090,10 @@
         <v>880</v>
       </c>
       <c r="H1010" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1010" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1010" t="inlineStr"/>
     </row>
@@ -33122,10 +33122,10 @@
         <v>880</v>
       </c>
       <c r="H1011" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1011" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1011" t="inlineStr"/>
     </row>
@@ -33154,10 +33154,10 @@
         <v>880</v>
       </c>
       <c r="H1012" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1012" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1012" t="inlineStr"/>
     </row>
@@ -33186,10 +33186,10 @@
         <v>880</v>
       </c>
       <c r="H1013" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1013" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1013" t="inlineStr"/>
     </row>
@@ -33218,10 +33218,10 @@
         <v>880</v>
       </c>
       <c r="H1014" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1014" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1014" t="inlineStr"/>
     </row>
@@ -33250,10 +33250,10 @@
         <v>880</v>
       </c>
       <c r="H1015" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1015" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1015" t="inlineStr"/>
     </row>
@@ -33282,10 +33282,10 @@
         <v>880</v>
       </c>
       <c r="H1016" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1016" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1016" t="inlineStr"/>
     </row>
@@ -33314,10 +33314,10 @@
         <v>880</v>
       </c>
       <c r="H1017" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1017" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1017" t="inlineStr"/>
     </row>
@@ -33346,10 +33346,10 @@
         <v>880</v>
       </c>
       <c r="H1018" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1018" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1018" t="inlineStr"/>
     </row>
@@ -33378,10 +33378,10 @@
         <v>880</v>
       </c>
       <c r="H1019" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1019" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1019" t="inlineStr"/>
     </row>
@@ -33414,10 +33414,10 @@
         <v>640</v>
       </c>
       <c r="H1020" t="n">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="I1020" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J1020" t="inlineStr">
         <is>
@@ -33450,10 +33450,10 @@
         <v>880</v>
       </c>
       <c r="H1021" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1021" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1021" t="inlineStr"/>
     </row>
@@ -33482,10 +33482,10 @@
         <v>880</v>
       </c>
       <c r="H1022" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1022" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1022" t="inlineStr"/>
     </row>
@@ -33514,10 +33514,10 @@
         <v>880</v>
       </c>
       <c r="H1023" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1023" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1023" t="inlineStr"/>
     </row>
@@ -33546,10 +33546,10 @@
         <v>880</v>
       </c>
       <c r="H1024" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1024" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1024" t="inlineStr"/>
     </row>
@@ -33578,10 +33578,10 @@
         <v>880</v>
       </c>
       <c r="H1025" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1025" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1025" t="inlineStr"/>
     </row>
@@ -33610,10 +33610,10 @@
         <v>880</v>
       </c>
       <c r="H1026" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1026" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1026" t="inlineStr"/>
     </row>
@@ -33642,10 +33642,10 @@
         <v>880</v>
       </c>
       <c r="H1027" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1027" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1027" t="inlineStr"/>
     </row>
@@ -33674,10 +33674,10 @@
         <v>880</v>
       </c>
       <c r="H1028" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1028" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1028" t="inlineStr"/>
     </row>
@@ -33706,10 +33706,10 @@
         <v>880</v>
       </c>
       <c r="H1029" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1029" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1029" t="inlineStr"/>
     </row>
@@ -33738,10 +33738,10 @@
         <v>880</v>
       </c>
       <c r="H1030" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1030" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1030" t="inlineStr"/>
     </row>
@@ -33770,10 +33770,10 @@
         <v>880</v>
       </c>
       <c r="H1031" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1031" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1031" t="inlineStr"/>
     </row>
@@ -33802,10 +33802,10 @@
         <v>880</v>
       </c>
       <c r="H1032" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1032" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1032" t="inlineStr"/>
     </row>
@@ -33834,10 +33834,10 @@
         <v>880</v>
       </c>
       <c r="H1033" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1033" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1033" t="inlineStr"/>
     </row>
@@ -33866,10 +33866,10 @@
         <v>880</v>
       </c>
       <c r="H1034" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1034" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1034" t="inlineStr"/>
     </row>
@@ -33898,10 +33898,10 @@
         <v>880</v>
       </c>
       <c r="H1035" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1035" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1035" t="inlineStr"/>
     </row>
@@ -33930,10 +33930,10 @@
         <v>880</v>
       </c>
       <c r="H1036" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1036" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1036" t="inlineStr"/>
     </row>
@@ -33962,10 +33962,10 @@
         <v>880</v>
       </c>
       <c r="H1037" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1037" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1037" t="inlineStr"/>
     </row>
@@ -33994,10 +33994,10 @@
         <v>880</v>
       </c>
       <c r="H1038" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1038" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1038" t="inlineStr"/>
     </row>
@@ -34026,10 +34026,10 @@
         <v>880</v>
       </c>
       <c r="H1039" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1039" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1039" t="inlineStr"/>
     </row>
@@ -34058,10 +34058,10 @@
         <v>880</v>
       </c>
       <c r="H1040" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1040" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1040" t="inlineStr"/>
     </row>
@@ -34090,10 +34090,10 @@
         <v>880</v>
       </c>
       <c r="H1041" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1041" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1041" t="inlineStr"/>
     </row>
@@ -34122,10 +34122,10 @@
         <v>880</v>
       </c>
       <c r="H1042" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1042" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1042" t="inlineStr"/>
     </row>
@@ -34154,10 +34154,10 @@
         <v>880</v>
       </c>
       <c r="H1043" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1043" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1043" t="inlineStr"/>
     </row>
@@ -34218,10 +34218,10 @@
         <v>880</v>
       </c>
       <c r="H1045" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1045" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1045" t="inlineStr"/>
     </row>
@@ -34250,10 +34250,10 @@
         <v>880</v>
       </c>
       <c r="H1046" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1046" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1046" t="inlineStr"/>
     </row>
@@ -34286,10 +34286,10 @@
         <v>520</v>
       </c>
       <c r="H1047" t="n">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="I1047" t="n">
-        <v>104</v>
+        <v>97.5</v>
       </c>
       <c r="J1047" t="inlineStr">
         <is>
@@ -34322,10 +34322,10 @@
         <v>880</v>
       </c>
       <c r="H1048" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1048" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1048" t="inlineStr"/>
     </row>
@@ -34354,10 +34354,10 @@
         <v>880</v>
       </c>
       <c r="H1049" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1049" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1049" t="inlineStr"/>
     </row>
@@ -34386,10 +34386,10 @@
         <v>880</v>
       </c>
       <c r="H1050" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1050" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1050" t="inlineStr"/>
     </row>
@@ -34418,10 +34418,10 @@
         <v>880</v>
       </c>
       <c r="H1051" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1051" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1051" t="inlineStr"/>
     </row>
@@ -34450,10 +34450,10 @@
         <v>880</v>
       </c>
       <c r="H1052" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1052" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1052" t="inlineStr"/>
     </row>
@@ -34482,10 +34482,10 @@
         <v>880</v>
       </c>
       <c r="H1053" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1053" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1053" t="inlineStr"/>
     </row>
@@ -34514,10 +34514,10 @@
         <v>880</v>
       </c>
       <c r="H1054" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1054" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1054" t="inlineStr"/>
     </row>
@@ -34578,10 +34578,10 @@
         <v>880</v>
       </c>
       <c r="H1056" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1056" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1056" t="inlineStr"/>
     </row>
@@ -34610,10 +34610,10 @@
         <v>880</v>
       </c>
       <c r="H1057" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1057" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1057" t="inlineStr"/>
     </row>
@@ -34642,10 +34642,10 @@
         <v>880</v>
       </c>
       <c r="H1058" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1058" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1058" t="inlineStr"/>
     </row>
@@ -34674,10 +34674,10 @@
         <v>880</v>
       </c>
       <c r="H1059" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1059" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1059" t="inlineStr"/>
     </row>
@@ -34706,10 +34706,10 @@
         <v>880</v>
       </c>
       <c r="H1060" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1060" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1060" t="inlineStr"/>
     </row>
@@ -34770,10 +34770,10 @@
         <v>880</v>
       </c>
       <c r="H1062" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1062" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1062" t="inlineStr"/>
     </row>
@@ -34806,10 +34806,10 @@
         <v>880</v>
       </c>
       <c r="H1063" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1063" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1063" t="inlineStr"/>
     </row>
@@ -34838,10 +34838,10 @@
         <v>880</v>
       </c>
       <c r="H1064" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1064" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1064" t="inlineStr"/>
     </row>
@@ -34870,10 +34870,10 @@
         <v>880</v>
       </c>
       <c r="H1065" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1065" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1065" t="inlineStr"/>
     </row>
@@ -34902,10 +34902,10 @@
         <v>880</v>
       </c>
       <c r="H1066" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1066" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1066" t="inlineStr"/>
     </row>
@@ -34934,10 +34934,10 @@
         <v>880</v>
       </c>
       <c r="H1067" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1067" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1067" t="inlineStr"/>
     </row>
@@ -34966,10 +34966,10 @@
         <v>880</v>
       </c>
       <c r="H1068" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1068" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1068" t="inlineStr"/>
     </row>
@@ -34998,10 +34998,10 @@
         <v>880</v>
       </c>
       <c r="H1069" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1069" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1069" t="inlineStr"/>
     </row>
@@ -35030,10 +35030,10 @@
         <v>880</v>
       </c>
       <c r="H1070" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1070" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1070" t="inlineStr"/>
     </row>
@@ -35062,10 +35062,10 @@
         <v>880</v>
       </c>
       <c r="H1071" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1071" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1071" t="inlineStr"/>
     </row>
@@ -35094,10 +35094,10 @@
         <v>880</v>
       </c>
       <c r="H1072" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1072" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1072" t="inlineStr"/>
     </row>
@@ -35126,10 +35126,10 @@
         <v>880</v>
       </c>
       <c r="H1073" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1073" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1073" t="inlineStr"/>
     </row>
@@ -35158,10 +35158,10 @@
         <v>880</v>
       </c>
       <c r="H1074" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1074" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1074" t="inlineStr"/>
     </row>
@@ -35190,10 +35190,10 @@
         <v>880</v>
       </c>
       <c r="H1075" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1075" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1075" t="inlineStr"/>
     </row>
@@ -35222,10 +35222,10 @@
         <v>880</v>
       </c>
       <c r="H1076" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1076" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1076" t="inlineStr"/>
     </row>
@@ -35254,10 +35254,10 @@
         <v>880</v>
       </c>
       <c r="H1077" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1077" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1077" t="inlineStr"/>
     </row>
@@ -35286,10 +35286,10 @@
         <v>880</v>
       </c>
       <c r="H1078" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1078" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1078" t="inlineStr"/>
     </row>
@@ -35318,10 +35318,10 @@
         <v>880</v>
       </c>
       <c r="H1079" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1079" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1079" t="inlineStr"/>
     </row>
@@ -35350,10 +35350,10 @@
         <v>880</v>
       </c>
       <c r="H1080" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1080" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1080" t="inlineStr"/>
     </row>
@@ -35382,10 +35382,10 @@
         <v>880</v>
       </c>
       <c r="H1081" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1081" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1081" t="inlineStr"/>
     </row>
@@ -35446,10 +35446,10 @@
         <v>880</v>
       </c>
       <c r="H1083" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1083" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1083" t="inlineStr"/>
     </row>
@@ -35478,10 +35478,10 @@
         <v>880</v>
       </c>
       <c r="H1084" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1084" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1084" t="inlineStr"/>
     </row>
@@ -35510,10 +35510,10 @@
         <v>880</v>
       </c>
       <c r="H1085" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1085" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1085" t="inlineStr"/>
     </row>
@@ -35542,10 +35542,10 @@
         <v>880</v>
       </c>
       <c r="H1086" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1086" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1086" t="inlineStr"/>
     </row>
@@ -35574,10 +35574,10 @@
         <v>880</v>
       </c>
       <c r="H1087" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1087" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1087" t="inlineStr"/>
     </row>
@@ -35606,10 +35606,10 @@
         <v>880</v>
       </c>
       <c r="H1088" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1088" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1088" t="inlineStr"/>
     </row>
@@ -35638,10 +35638,10 @@
         <v>880</v>
       </c>
       <c r="H1089" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1089" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1089" t="inlineStr"/>
     </row>
@@ -35670,10 +35670,10 @@
         <v>880</v>
       </c>
       <c r="H1090" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1090" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1090" t="inlineStr"/>
     </row>
@@ -35702,10 +35702,10 @@
         <v>880</v>
       </c>
       <c r="H1091" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1091" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1091" t="inlineStr"/>
     </row>
@@ -35734,10 +35734,10 @@
         <v>880</v>
       </c>
       <c r="H1092" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1092" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1092" t="inlineStr"/>
     </row>
@@ -35766,10 +35766,10 @@
         <v>880</v>
       </c>
       <c r="H1093" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1093" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1093" t="inlineStr"/>
     </row>
@@ -35798,10 +35798,10 @@
         <v>880</v>
       </c>
       <c r="H1094" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1094" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1094" t="inlineStr"/>
     </row>
@@ -35830,10 +35830,10 @@
         <v>880</v>
       </c>
       <c r="H1095" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1095" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1095" t="inlineStr"/>
     </row>
@@ -35862,10 +35862,10 @@
         <v>680</v>
       </c>
       <c r="H1096" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1096" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1096" t="inlineStr"/>
     </row>
@@ -35894,10 +35894,10 @@
         <v>880</v>
       </c>
       <c r="H1097" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1097" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1097" t="inlineStr"/>
     </row>
@@ -35926,10 +35926,10 @@
         <v>880</v>
       </c>
       <c r="H1098" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1098" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1098" t="inlineStr"/>
     </row>
@@ -35958,10 +35958,10 @@
         <v>880</v>
       </c>
       <c r="H1099" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1099" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1099" t="inlineStr"/>
     </row>
@@ -35990,10 +35990,10 @@
         <v>880</v>
       </c>
       <c r="H1100" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1100" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1100" t="inlineStr"/>
     </row>
@@ -36022,10 +36022,10 @@
         <v>880</v>
       </c>
       <c r="H1101" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1101" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1101" t="inlineStr"/>
     </row>
@@ -36054,10 +36054,10 @@
         <v>880</v>
       </c>
       <c r="H1102" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1102" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1102" t="inlineStr"/>
     </row>
@@ -36086,10 +36086,10 @@
         <v>880</v>
       </c>
       <c r="H1103" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1103" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1103" t="inlineStr"/>
     </row>
@@ -36118,10 +36118,10 @@
         <v>880</v>
       </c>
       <c r="H1104" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1104" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1104" t="inlineStr"/>
     </row>
@@ -36150,10 +36150,10 @@
         <v>880</v>
       </c>
       <c r="H1105" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1105" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1105" t="inlineStr"/>
     </row>
@@ -36182,10 +36182,10 @@
         <v>880</v>
       </c>
       <c r="H1106" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1106" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1106" t="inlineStr"/>
     </row>
@@ -36214,10 +36214,10 @@
         <v>880</v>
       </c>
       <c r="H1107" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1107" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1107" t="inlineStr"/>
     </row>
@@ -36246,10 +36246,10 @@
         <v>880</v>
       </c>
       <c r="H1108" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1108" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1108" t="inlineStr"/>
     </row>
@@ -36278,10 +36278,10 @@
         <v>880</v>
       </c>
       <c r="H1109" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1109" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1109" t="inlineStr"/>
     </row>
@@ -36310,10 +36310,10 @@
         <v>880</v>
       </c>
       <c r="H1110" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1110" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1110" t="inlineStr"/>
     </row>
@@ -36342,10 +36342,10 @@
         <v>880</v>
       </c>
       <c r="H1111" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1111" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1111" t="inlineStr"/>
     </row>
@@ -36374,10 +36374,10 @@
         <v>680</v>
       </c>
       <c r="H1112" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1112" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1112" t="inlineStr"/>
     </row>
@@ -36406,10 +36406,10 @@
         <v>880</v>
       </c>
       <c r="H1113" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1113" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1113" t="inlineStr"/>
     </row>
@@ -36438,10 +36438,10 @@
         <v>880</v>
       </c>
       <c r="H1114" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1114" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1114" t="inlineStr"/>
     </row>
@@ -36470,10 +36470,10 @@
         <v>880</v>
       </c>
       <c r="H1115" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1115" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1115" t="inlineStr"/>
     </row>
@@ -36502,10 +36502,10 @@
         <v>880</v>
       </c>
       <c r="H1116" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1116" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1116" t="inlineStr"/>
     </row>
@@ -36534,10 +36534,10 @@
         <v>880</v>
       </c>
       <c r="H1117" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1117" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1117" t="inlineStr"/>
     </row>
@@ -36566,10 +36566,10 @@
         <v>880</v>
       </c>
       <c r="H1118" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1118" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1118" t="inlineStr"/>
     </row>
@@ -36598,10 +36598,10 @@
         <v>880</v>
       </c>
       <c r="H1119" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1119" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1119" t="inlineStr"/>
     </row>
@@ -36630,10 +36630,10 @@
         <v>880</v>
       </c>
       <c r="H1120" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1120" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1120" t="inlineStr"/>
     </row>
@@ -36662,10 +36662,10 @@
         <v>880</v>
       </c>
       <c r="H1121" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1121" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1121" t="inlineStr"/>
     </row>
@@ -36694,10 +36694,10 @@
         <v>880</v>
       </c>
       <c r="H1122" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1122" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1122" t="inlineStr"/>
     </row>
@@ -36726,10 +36726,10 @@
         <v>680</v>
       </c>
       <c r="H1123" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1123" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1123" t="inlineStr"/>
     </row>
@@ -36758,10 +36758,10 @@
         <v>880</v>
       </c>
       <c r="H1124" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1124" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1124" t="inlineStr"/>
     </row>
@@ -36790,10 +36790,10 @@
         <v>880</v>
       </c>
       <c r="H1125" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1125" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1125" t="inlineStr"/>
     </row>
@@ -36822,10 +36822,10 @@
         <v>880</v>
       </c>
       <c r="H1126" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1126" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1126" t="inlineStr"/>
     </row>
@@ -36854,10 +36854,10 @@
         <v>880</v>
       </c>
       <c r="H1127" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1127" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1127" t="inlineStr"/>
     </row>
@@ -36886,10 +36886,10 @@
         <v>880</v>
       </c>
       <c r="H1128" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1128" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1128" t="inlineStr"/>
     </row>
@@ -36918,10 +36918,10 @@
         <v>880</v>
       </c>
       <c r="H1129" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1129" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1129" t="inlineStr"/>
     </row>
@@ -36950,10 +36950,10 @@
         <v>880</v>
       </c>
       <c r="H1130" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1130" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1130" t="inlineStr"/>
     </row>
@@ -36982,10 +36982,10 @@
         <v>880</v>
       </c>
       <c r="H1131" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1131" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1131" t="inlineStr"/>
     </row>
@@ -37014,10 +37014,10 @@
         <v>880</v>
       </c>
       <c r="H1132" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1132" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1132" t="inlineStr"/>
     </row>
@@ -37046,10 +37046,10 @@
         <v>880</v>
       </c>
       <c r="H1133" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1133" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1133" t="inlineStr"/>
     </row>
@@ -37078,10 +37078,10 @@
         <v>880</v>
       </c>
       <c r="H1134" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1134" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1134" t="inlineStr"/>
     </row>
@@ -37110,10 +37110,10 @@
         <v>880</v>
       </c>
       <c r="H1135" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1135" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1135" t="inlineStr"/>
     </row>
@@ -37142,10 +37142,10 @@
         <v>880</v>
       </c>
       <c r="H1136" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1136" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1136" t="inlineStr"/>
     </row>
@@ -37174,10 +37174,10 @@
         <v>680</v>
       </c>
       <c r="H1137" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1137" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1137" t="inlineStr"/>
     </row>
@@ -37206,10 +37206,10 @@
         <v>880</v>
       </c>
       <c r="H1138" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1138" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1138" t="inlineStr"/>
     </row>
@@ -37238,10 +37238,10 @@
         <v>880</v>
       </c>
       <c r="H1139" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1139" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1139" t="inlineStr"/>
     </row>
@@ -37270,10 +37270,10 @@
         <v>880</v>
       </c>
       <c r="H1140" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1140" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1140" t="inlineStr"/>
     </row>
@@ -37302,10 +37302,10 @@
         <v>880</v>
       </c>
       <c r="H1141" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1141" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1141" t="inlineStr"/>
     </row>
@@ -37334,10 +37334,10 @@
         <v>880</v>
       </c>
       <c r="H1142" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1142" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1142" t="inlineStr"/>
     </row>
@@ -37366,10 +37366,10 @@
         <v>880</v>
       </c>
       <c r="H1143" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1143" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1143" t="inlineStr"/>
     </row>
@@ -37398,10 +37398,10 @@
         <v>880</v>
       </c>
       <c r="H1144" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1144" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1144" t="inlineStr"/>
     </row>
@@ -37430,10 +37430,10 @@
         <v>880</v>
       </c>
       <c r="H1145" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1145" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1145" t="inlineStr"/>
     </row>
@@ -37462,10 +37462,10 @@
         <v>880</v>
       </c>
       <c r="H1146" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1146" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1146" t="inlineStr"/>
     </row>
@@ -37494,10 +37494,10 @@
         <v>880</v>
       </c>
       <c r="H1147" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1147" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1147" t="inlineStr"/>
     </row>
@@ -37526,10 +37526,10 @@
         <v>880</v>
       </c>
       <c r="H1148" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1148" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1148" t="inlineStr"/>
     </row>
@@ -37558,10 +37558,10 @@
         <v>880</v>
       </c>
       <c r="H1149" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1149" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1149" t="inlineStr"/>
     </row>
@@ -37590,10 +37590,10 @@
         <v>880</v>
       </c>
       <c r="H1150" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1150" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1150" t="inlineStr"/>
     </row>
@@ -37622,10 +37622,10 @@
         <v>880</v>
       </c>
       <c r="H1151" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1151" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1151" t="inlineStr"/>
     </row>
@@ -37654,10 +37654,10 @@
         <v>880</v>
       </c>
       <c r="H1152" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1152" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1152" t="inlineStr"/>
     </row>
@@ -37686,10 +37686,10 @@
         <v>880</v>
       </c>
       <c r="H1153" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1153" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1153" t="inlineStr"/>
     </row>
@@ -37718,10 +37718,10 @@
         <v>880</v>
       </c>
       <c r="H1154" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1154" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1154" t="inlineStr"/>
     </row>
@@ -37750,10 +37750,10 @@
         <v>880</v>
       </c>
       <c r="H1155" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1155" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1155" t="inlineStr"/>
     </row>
@@ -37782,10 +37782,10 @@
         <v>880</v>
       </c>
       <c r="H1156" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1156" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1156" t="inlineStr"/>
     </row>
@@ -37814,10 +37814,10 @@
         <v>880</v>
       </c>
       <c r="H1157" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1157" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1157" t="inlineStr"/>
     </row>
@@ -37846,10 +37846,10 @@
         <v>880</v>
       </c>
       <c r="H1158" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1158" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1158" t="inlineStr"/>
     </row>
@@ -37878,10 +37878,10 @@
         <v>880</v>
       </c>
       <c r="H1159" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1159" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1159" t="inlineStr"/>
     </row>
@@ -37910,10 +37910,10 @@
         <v>880</v>
       </c>
       <c r="H1160" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1160" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1160" t="inlineStr"/>
     </row>
@@ -37942,10 +37942,10 @@
         <v>880</v>
       </c>
       <c r="H1161" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1161" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1161" t="inlineStr"/>
     </row>
@@ -37974,10 +37974,10 @@
         <v>880</v>
       </c>
       <c r="H1162" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1162" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1162" t="inlineStr"/>
     </row>
@@ -38006,10 +38006,10 @@
         <v>880</v>
       </c>
       <c r="H1163" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1163" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1163" t="inlineStr"/>
     </row>
@@ -38038,10 +38038,10 @@
         <v>880</v>
       </c>
       <c r="H1164" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1164" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1164" t="inlineStr"/>
     </row>
@@ -38070,10 +38070,10 @@
         <v>880</v>
       </c>
       <c r="H1165" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1165" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1165" t="inlineStr"/>
     </row>
@@ -38102,10 +38102,10 @@
         <v>880</v>
       </c>
       <c r="H1166" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1166" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1166" t="inlineStr"/>
     </row>
@@ -38134,10 +38134,10 @@
         <v>880</v>
       </c>
       <c r="H1167" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1167" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1167" t="inlineStr"/>
     </row>
@@ -38166,10 +38166,10 @@
         <v>880</v>
       </c>
       <c r="H1168" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1168" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1168" t="inlineStr"/>
     </row>
@@ -38198,10 +38198,10 @@
         <v>880</v>
       </c>
       <c r="H1169" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1169" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1169" t="inlineStr"/>
     </row>
@@ -38230,10 +38230,10 @@
         <v>880</v>
       </c>
       <c r="H1170" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1170" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1170" t="inlineStr"/>
     </row>
@@ -38262,10 +38262,10 @@
         <v>880</v>
       </c>
       <c r="H1171" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1171" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1171" t="inlineStr"/>
     </row>
@@ -38294,10 +38294,10 @@
         <v>880</v>
       </c>
       <c r="H1172" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1172" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1172" t="inlineStr"/>
     </row>
@@ -38326,10 +38326,10 @@
         <v>880</v>
       </c>
       <c r="H1173" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1173" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1173" t="inlineStr"/>
     </row>
@@ -38358,10 +38358,10 @@
         <v>880</v>
       </c>
       <c r="H1174" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1174" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1174" t="inlineStr"/>
     </row>
@@ -38390,10 +38390,10 @@
         <v>880</v>
       </c>
       <c r="H1175" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1175" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1175" t="inlineStr"/>
     </row>
@@ -38422,10 +38422,10 @@
         <v>880</v>
       </c>
       <c r="H1176" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1176" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1176" t="inlineStr"/>
     </row>
@@ -38454,10 +38454,10 @@
         <v>880</v>
       </c>
       <c r="H1177" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1177" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1177" t="inlineStr"/>
     </row>
@@ -38486,10 +38486,10 @@
         <v>880</v>
       </c>
       <c r="H1178" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1178" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1178" t="inlineStr"/>
     </row>
@@ -38518,10 +38518,10 @@
         <v>880</v>
       </c>
       <c r="H1179" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1179" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1179" t="inlineStr"/>
     </row>
@@ -38550,10 +38550,10 @@
         <v>880</v>
       </c>
       <c r="H1180" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1180" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1180" t="inlineStr"/>
     </row>
@@ -38582,10 +38582,10 @@
         <v>880</v>
       </c>
       <c r="H1181" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1181" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1181" t="inlineStr"/>
     </row>
@@ -38614,10 +38614,10 @@
         <v>880</v>
       </c>
       <c r="H1182" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1182" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1182" t="inlineStr"/>
     </row>
@@ -38646,10 +38646,10 @@
         <v>880</v>
       </c>
       <c r="H1183" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1183" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1183" t="inlineStr"/>
     </row>
@@ -38678,10 +38678,10 @@
         <v>880</v>
       </c>
       <c r="H1184" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1184" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1184" t="inlineStr"/>
     </row>
@@ -38710,10 +38710,10 @@
         <v>880</v>
       </c>
       <c r="H1185" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1185" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1185" t="inlineStr"/>
     </row>
@@ -38742,10 +38742,10 @@
         <v>880</v>
       </c>
       <c r="H1186" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1186" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1186" t="inlineStr"/>
     </row>
@@ -38774,10 +38774,10 @@
         <v>880</v>
       </c>
       <c r="H1187" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1187" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1187" t="inlineStr"/>
     </row>
@@ -38806,10 +38806,10 @@
         <v>880</v>
       </c>
       <c r="H1188" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1188" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1188" t="inlineStr"/>
     </row>
@@ -38838,10 +38838,10 @@
         <v>880</v>
       </c>
       <c r="H1189" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1189" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1189" t="inlineStr"/>
     </row>
@@ -38870,10 +38870,10 @@
         <v>880</v>
       </c>
       <c r="H1190" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1190" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1190" t="inlineStr"/>
     </row>
@@ -38902,10 +38902,10 @@
         <v>880</v>
       </c>
       <c r="H1191" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1191" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1191" t="inlineStr"/>
     </row>
@@ -38934,10 +38934,10 @@
         <v>880</v>
       </c>
       <c r="H1192" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1192" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1192" t="inlineStr"/>
     </row>
@@ -38966,10 +38966,10 @@
         <v>880</v>
       </c>
       <c r="H1193" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1193" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1193" t="inlineStr"/>
     </row>
@@ -38998,10 +38998,10 @@
         <v>880</v>
       </c>
       <c r="H1194" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1194" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1194" t="inlineStr"/>
     </row>
@@ -39030,10 +39030,10 @@
         <v>880</v>
       </c>
       <c r="H1195" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1195" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1195" t="inlineStr"/>
     </row>
@@ -39062,10 +39062,10 @@
         <v>880</v>
       </c>
       <c r="H1196" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1196" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1196" t="inlineStr"/>
     </row>
@@ -39094,10 +39094,10 @@
         <v>880</v>
       </c>
       <c r="H1197" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1197" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1197" t="inlineStr"/>
     </row>
@@ -39126,10 +39126,10 @@
         <v>880</v>
       </c>
       <c r="H1198" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1198" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1198" t="inlineStr"/>
     </row>
@@ -39158,10 +39158,10 @@
         <v>880</v>
       </c>
       <c r="H1199" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1199" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1199" t="inlineStr"/>
     </row>
@@ -39190,10 +39190,10 @@
         <v>880</v>
       </c>
       <c r="H1200" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1200" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1200" t="inlineStr"/>
     </row>
@@ -39222,10 +39222,10 @@
         <v>880</v>
       </c>
       <c r="H1201" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1201" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1201" t="inlineStr"/>
     </row>
@@ -39254,10 +39254,10 @@
         <v>680</v>
       </c>
       <c r="H1202" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1202" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1202" t="inlineStr"/>
     </row>
@@ -39286,10 +39286,10 @@
         <v>880</v>
       </c>
       <c r="H1203" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1203" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1203" t="inlineStr"/>
     </row>
@@ -39318,10 +39318,10 @@
         <v>880</v>
       </c>
       <c r="H1204" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1204" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1204" t="inlineStr"/>
     </row>
@@ -39350,10 +39350,10 @@
         <v>880</v>
       </c>
       <c r="H1205" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1205" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1205" t="inlineStr"/>
     </row>
@@ -39382,10 +39382,10 @@
         <v>880</v>
       </c>
       <c r="H1206" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1206" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1206" t="inlineStr"/>
     </row>
@@ -39414,10 +39414,10 @@
         <v>880</v>
       </c>
       <c r="H1207" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1207" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1207" t="inlineStr"/>
     </row>
@@ -39446,10 +39446,10 @@
         <v>880</v>
       </c>
       <c r="H1208" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1208" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1208" t="inlineStr"/>
     </row>
@@ -39478,10 +39478,10 @@
         <v>880</v>
       </c>
       <c r="H1209" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1209" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1209" t="inlineStr"/>
     </row>
@@ -39510,10 +39510,10 @@
         <v>880</v>
       </c>
       <c r="H1210" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1210" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1210" t="inlineStr"/>
     </row>
@@ -39542,10 +39542,10 @@
         <v>880</v>
       </c>
       <c r="H1211" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1211" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1211" t="inlineStr"/>
     </row>
@@ -39574,10 +39574,10 @@
         <v>680</v>
       </c>
       <c r="H1212" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="I1212" t="n">
-        <v>136</v>
+        <v>127.5</v>
       </c>
       <c r="J1212" t="inlineStr"/>
     </row>
@@ -39606,10 +39606,10 @@
         <v>880</v>
       </c>
       <c r="H1213" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1213" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1213" t="inlineStr"/>
     </row>
@@ -39638,10 +39638,10 @@
         <v>880</v>
       </c>
       <c r="H1214" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1214" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1214" t="inlineStr"/>
     </row>
@@ -39670,10 +39670,10 @@
         <v>880</v>
       </c>
       <c r="H1215" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1215" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1215" t="inlineStr"/>
     </row>
@@ -39702,10 +39702,10 @@
         <v>880</v>
       </c>
       <c r="H1216" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1216" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1216" t="inlineStr"/>
     </row>
@@ -39734,10 +39734,10 @@
         <v>880</v>
       </c>
       <c r="H1217" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1217" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1217" t="inlineStr"/>
     </row>
@@ -39766,10 +39766,10 @@
         <v>880</v>
       </c>
       <c r="H1218" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1218" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1218" t="inlineStr"/>
     </row>
@@ -39798,10 +39798,10 @@
         <v>880</v>
       </c>
       <c r="H1219" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1219" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1219" t="inlineStr"/>
     </row>
@@ -39830,10 +39830,10 @@
         <v>880</v>
       </c>
       <c r="H1220" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1220" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1220" t="inlineStr"/>
     </row>
@@ -39862,10 +39862,10 @@
         <v>880</v>
       </c>
       <c r="H1221" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1221" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1221" t="inlineStr"/>
     </row>
@@ -39894,10 +39894,10 @@
         <v>880</v>
       </c>
       <c r="H1222" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1222" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1222" t="inlineStr"/>
     </row>
@@ -39926,10 +39926,10 @@
         <v>880</v>
       </c>
       <c r="H1223" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1223" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1223" t="inlineStr"/>
     </row>
@@ -39958,10 +39958,10 @@
         <v>880</v>
       </c>
       <c r="H1224" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1224" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1224" t="inlineStr"/>
     </row>
@@ -39990,10 +39990,10 @@
         <v>880</v>
       </c>
       <c r="H1225" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1225" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1225" t="inlineStr"/>
     </row>
@@ -40022,10 +40022,10 @@
         <v>880</v>
       </c>
       <c r="H1226" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1226" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1226" t="inlineStr"/>
     </row>
@@ -40054,10 +40054,10 @@
         <v>880</v>
       </c>
       <c r="H1227" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1227" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1227" t="inlineStr"/>
     </row>
@@ -40086,10 +40086,10 @@
         <v>880</v>
       </c>
       <c r="H1228" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1228" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1228" t="inlineStr"/>
     </row>
@@ -40118,10 +40118,10 @@
         <v>880</v>
       </c>
       <c r="H1229" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1229" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1229" t="inlineStr"/>
     </row>
@@ -40150,10 +40150,10 @@
         <v>880</v>
       </c>
       <c r="H1230" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1230" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1230" t="inlineStr"/>
     </row>
@@ -40182,10 +40182,10 @@
         <v>880</v>
       </c>
       <c r="H1231" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1231" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1231" t="inlineStr"/>
     </row>
@@ -40214,10 +40214,10 @@
         <v>880</v>
       </c>
       <c r="H1232" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1232" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1232" t="inlineStr"/>
     </row>
@@ -40246,10 +40246,10 @@
         <v>880</v>
       </c>
       <c r="H1233" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1233" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1233" t="inlineStr"/>
     </row>
@@ -40278,10 +40278,10 @@
         <v>880</v>
       </c>
       <c r="H1234" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1234" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1234" t="inlineStr"/>
     </row>
@@ -40310,10 +40310,10 @@
         <v>880</v>
       </c>
       <c r="H1235" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1235" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1235" t="inlineStr"/>
     </row>
@@ -40342,10 +40342,10 @@
         <v>880</v>
       </c>
       <c r="H1236" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1236" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1236" t="inlineStr"/>
     </row>
@@ -40374,10 +40374,10 @@
         <v>880</v>
       </c>
       <c r="H1237" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1237" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1237" t="inlineStr"/>
     </row>
@@ -40406,10 +40406,10 @@
         <v>880</v>
       </c>
       <c r="H1238" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1238" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1238" t="inlineStr"/>
     </row>
@@ -40438,10 +40438,10 @@
         <v>880</v>
       </c>
       <c r="H1239" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1239" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1239" t="inlineStr"/>
     </row>
@@ -40470,10 +40470,10 @@
         <v>880</v>
       </c>
       <c r="H1240" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1240" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1240" t="inlineStr"/>
     </row>
@@ -40502,10 +40502,10 @@
         <v>880</v>
       </c>
       <c r="H1241" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1241" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1241" t="inlineStr"/>
     </row>
@@ -40534,10 +40534,10 @@
         <v>880</v>
       </c>
       <c r="H1242" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1242" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1242" t="inlineStr"/>
     </row>
@@ -40566,10 +40566,10 @@
         <v>880</v>
       </c>
       <c r="H1243" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1243" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1243" t="inlineStr"/>
     </row>
@@ -40598,10 +40598,10 @@
         <v>280</v>
       </c>
       <c r="H1244" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I1244" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="J1244" t="inlineStr"/>
     </row>
@@ -40630,10 +40630,10 @@
         <v>880</v>
       </c>
       <c r="H1245" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1245" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1245" t="inlineStr"/>
     </row>
@@ -40662,10 +40662,10 @@
         <v>880</v>
       </c>
       <c r="H1246" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1246" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1246" t="inlineStr"/>
     </row>
@@ -40694,10 +40694,10 @@
         <v>880</v>
       </c>
       <c r="H1247" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1247" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1247" t="inlineStr"/>
     </row>
@@ -40726,10 +40726,10 @@
         <v>880</v>
       </c>
       <c r="H1248" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1248" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1248" t="inlineStr"/>
     </row>
@@ -40758,10 +40758,10 @@
         <v>80</v>
       </c>
       <c r="H1249" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1249" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1249" t="inlineStr"/>
     </row>
@@ -40790,10 +40790,10 @@
         <v>880</v>
       </c>
       <c r="H1250" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1250" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1250" t="inlineStr"/>
     </row>
@@ -40822,10 +40822,10 @@
         <v>880</v>
       </c>
       <c r="H1251" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1251" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1251" t="inlineStr"/>
     </row>
@@ -40854,10 +40854,10 @@
         <v>880</v>
       </c>
       <c r="H1252" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1252" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1252" t="inlineStr"/>
     </row>
@@ -40886,10 +40886,10 @@
         <v>880</v>
       </c>
       <c r="H1253" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1253" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1253" t="inlineStr"/>
     </row>
@@ -40918,10 +40918,10 @@
         <v>880</v>
       </c>
       <c r="H1254" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1254" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1254" t="inlineStr"/>
     </row>
@@ -40950,10 +40950,10 @@
         <v>880</v>
       </c>
       <c r="H1255" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1255" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1255" t="inlineStr"/>
     </row>
@@ -40982,10 +40982,10 @@
         <v>880</v>
       </c>
       <c r="H1256" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1256" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1256" t="inlineStr"/>
     </row>
@@ -41014,10 +41014,10 @@
         <v>880</v>
       </c>
       <c r="H1257" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1257" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1257" t="inlineStr"/>
     </row>
@@ -41046,10 +41046,10 @@
         <v>880</v>
       </c>
       <c r="H1258" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1258" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1258" t="inlineStr"/>
     </row>
@@ -41078,10 +41078,10 @@
         <v>880</v>
       </c>
       <c r="H1259" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1259" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1259" t="inlineStr"/>
     </row>
@@ -41110,10 +41110,10 @@
         <v>280</v>
       </c>
       <c r="H1260" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I1260" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="J1260" t="inlineStr"/>
     </row>
@@ -41142,10 +41142,10 @@
         <v>880</v>
       </c>
       <c r="H1261" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1261" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1261" t="inlineStr"/>
     </row>
@@ -41174,10 +41174,10 @@
         <v>880</v>
       </c>
       <c r="H1262" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1262" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1262" t="inlineStr"/>
     </row>
@@ -41206,10 +41206,10 @@
         <v>880</v>
       </c>
       <c r="H1263" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1263" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1263" t="inlineStr"/>
     </row>
@@ -41238,10 +41238,10 @@
         <v>880</v>
       </c>
       <c r="H1264" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1264" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1264" t="inlineStr"/>
     </row>
@@ -41270,10 +41270,10 @@
         <v>880</v>
       </c>
       <c r="H1265" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1265" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1265" t="inlineStr"/>
     </row>
@@ -41302,10 +41302,10 @@
         <v>880</v>
       </c>
       <c r="H1266" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1266" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1266" t="inlineStr"/>
     </row>
@@ -41334,10 +41334,10 @@
         <v>880</v>
       </c>
       <c r="H1267" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1267" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1267" t="inlineStr"/>
     </row>
@@ -41366,10 +41366,10 @@
         <v>880</v>
       </c>
       <c r="H1268" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1268" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1268" t="inlineStr"/>
     </row>
@@ -41398,10 +41398,10 @@
         <v>880</v>
       </c>
       <c r="H1269" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1269" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1269" t="inlineStr"/>
     </row>
@@ -41430,10 +41430,10 @@
         <v>880</v>
       </c>
       <c r="H1270" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1270" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1270" t="inlineStr"/>
     </row>
@@ -41462,10 +41462,10 @@
         <v>880</v>
       </c>
       <c r="H1271" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1271" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1271" t="inlineStr"/>
     </row>
@@ -41494,10 +41494,10 @@
         <v>880</v>
       </c>
       <c r="H1272" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1272" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1272" t="inlineStr"/>
     </row>
@@ -41526,10 +41526,10 @@
         <v>880</v>
       </c>
       <c r="H1273" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1273" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1273" t="inlineStr"/>
     </row>
@@ -41558,10 +41558,10 @@
         <v>880</v>
       </c>
       <c r="H1274" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1274" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1274" t="inlineStr"/>
     </row>
@@ -41590,10 +41590,10 @@
         <v>880</v>
       </c>
       <c r="H1275" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1275" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1275" t="inlineStr"/>
     </row>
@@ -41622,10 +41622,10 @@
         <v>880</v>
       </c>
       <c r="H1276" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1276" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1276" t="inlineStr"/>
     </row>
@@ -41654,10 +41654,10 @@
         <v>880</v>
       </c>
       <c r="H1277" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1277" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1277" t="inlineStr"/>
     </row>
@@ -41686,10 +41686,10 @@
         <v>880</v>
       </c>
       <c r="H1278" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1278" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1278" t="inlineStr"/>
     </row>
@@ -41718,10 +41718,10 @@
         <v>880</v>
       </c>
       <c r="H1279" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1279" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1279" t="inlineStr"/>
     </row>
@@ -41750,10 +41750,10 @@
         <v>880</v>
       </c>
       <c r="H1280" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1280" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1280" t="inlineStr"/>
     </row>
@@ -41782,10 +41782,10 @@
         <v>880</v>
       </c>
       <c r="H1281" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1281" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1281" t="inlineStr"/>
     </row>
@@ -41814,10 +41814,10 @@
         <v>880</v>
       </c>
       <c r="H1282" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1282" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1282" t="inlineStr"/>
     </row>
@@ -41846,10 +41846,10 @@
         <v>880</v>
       </c>
       <c r="H1283" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1283" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1283" t="inlineStr"/>
     </row>
@@ -41878,10 +41878,10 @@
         <v>880</v>
       </c>
       <c r="H1284" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1284" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1284" t="inlineStr"/>
     </row>
@@ -41910,10 +41910,10 @@
         <v>880</v>
       </c>
       <c r="H1285" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1285" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1285" t="inlineStr"/>
     </row>
@@ -41942,10 +41942,10 @@
         <v>880</v>
       </c>
       <c r="H1286" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1286" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1286" t="inlineStr"/>
     </row>
@@ -41974,10 +41974,10 @@
         <v>880</v>
       </c>
       <c r="H1287" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1287" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1287" t="inlineStr"/>
     </row>
@@ -42006,10 +42006,10 @@
         <v>880</v>
       </c>
       <c r="H1288" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1288" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1288" t="inlineStr"/>
     </row>
@@ -42038,10 +42038,10 @@
         <v>880</v>
       </c>
       <c r="H1289" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1289" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1289" t="inlineStr"/>
     </row>
@@ -42070,10 +42070,10 @@
         <v>880</v>
       </c>
       <c r="H1290" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1290" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1290" t="inlineStr"/>
     </row>
@@ -42102,10 +42102,10 @@
         <v>880</v>
       </c>
       <c r="H1291" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1291" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1291" t="inlineStr"/>
     </row>
@@ -42134,10 +42134,10 @@
         <v>880</v>
       </c>
       <c r="H1292" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1292" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1292" t="inlineStr"/>
     </row>
@@ -42166,10 +42166,10 @@
         <v>880</v>
       </c>
       <c r="H1293" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1293" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1293" t="inlineStr"/>
     </row>
@@ -42198,10 +42198,10 @@
         <v>880</v>
       </c>
       <c r="H1294" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1294" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1294" t="inlineStr"/>
     </row>
@@ -42230,10 +42230,10 @@
         <v>880</v>
       </c>
       <c r="H1295" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1295" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1295" t="inlineStr"/>
     </row>
@@ -42262,10 +42262,10 @@
         <v>880</v>
       </c>
       <c r="H1296" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1296" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1296" t="inlineStr"/>
     </row>
@@ -42294,10 +42294,10 @@
         <v>880</v>
       </c>
       <c r="H1297" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1297" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1297" t="inlineStr"/>
     </row>
@@ -42326,10 +42326,10 @@
         <v>880</v>
       </c>
       <c r="H1298" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1298" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1298" t="inlineStr"/>
     </row>
@@ -42358,10 +42358,10 @@
         <v>880</v>
       </c>
       <c r="H1299" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1299" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1299" t="inlineStr"/>
     </row>
@@ -42390,10 +42390,10 @@
         <v>880</v>
       </c>
       <c r="H1300" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1300" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1300" t="inlineStr"/>
     </row>
@@ -42422,10 +42422,10 @@
         <v>880</v>
       </c>
       <c r="H1301" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1301" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1301" t="inlineStr"/>
     </row>
@@ -42454,10 +42454,10 @@
         <v>880</v>
       </c>
       <c r="H1302" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1302" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1302" t="inlineStr"/>
     </row>
@@ -42486,10 +42486,10 @@
         <v>880</v>
       </c>
       <c r="H1303" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1303" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1303" t="inlineStr"/>
     </row>
@@ -42554,10 +42554,10 @@
         <v>880</v>
       </c>
       <c r="H1305" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1305" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1305" t="inlineStr"/>
     </row>
@@ -42586,10 +42586,10 @@
         <v>880</v>
       </c>
       <c r="H1306" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1306" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1306" t="inlineStr"/>
     </row>
@@ -42618,10 +42618,10 @@
         <v>880</v>
       </c>
       <c r="H1307" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1307" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1307" t="inlineStr"/>
     </row>
@@ -42650,10 +42650,10 @@
         <v>880</v>
       </c>
       <c r="H1308" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1308" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1308" t="inlineStr"/>
     </row>
@@ -42682,10 +42682,10 @@
         <v>880</v>
       </c>
       <c r="H1309" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1309" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1309" t="inlineStr"/>
     </row>
@@ -42714,10 +42714,10 @@
         <v>880</v>
       </c>
       <c r="H1310" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1310" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1310" t="inlineStr"/>
     </row>
@@ -42746,10 +42746,10 @@
         <v>880</v>
       </c>
       <c r="H1311" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1311" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1311" t="inlineStr"/>
     </row>
@@ -42778,10 +42778,10 @@
         <v>880</v>
       </c>
       <c r="H1312" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1312" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1312" t="inlineStr"/>
     </row>
@@ -42810,10 +42810,10 @@
         <v>880</v>
       </c>
       <c r="H1313" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1313" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1313" t="inlineStr"/>
     </row>
@@ -42842,10 +42842,10 @@
         <v>880</v>
       </c>
       <c r="H1314" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1314" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1314" t="inlineStr"/>
     </row>
@@ -42874,10 +42874,10 @@
         <v>880</v>
       </c>
       <c r="H1315" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1315" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1315" t="inlineStr"/>
     </row>
@@ -42906,10 +42906,10 @@
         <v>880</v>
       </c>
       <c r="H1316" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1316" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1316" t="inlineStr"/>
     </row>
@@ -42938,10 +42938,10 @@
         <v>880</v>
       </c>
       <c r="H1317" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1317" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1317" t="inlineStr"/>
     </row>
@@ -42970,10 +42970,10 @@
         <v>880</v>
       </c>
       <c r="H1318" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1318" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1318" t="inlineStr"/>
     </row>
@@ -43002,10 +43002,10 @@
         <v>880</v>
       </c>
       <c r="H1319" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1319" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1319" t="inlineStr"/>
     </row>
@@ -43034,10 +43034,10 @@
         <v>880</v>
       </c>
       <c r="H1320" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1320" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1320" t="inlineStr"/>
     </row>
@@ -43066,10 +43066,10 @@
         <v>880</v>
       </c>
       <c r="H1321" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1321" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1321" t="inlineStr"/>
     </row>
@@ -43098,10 +43098,10 @@
         <v>880</v>
       </c>
       <c r="H1322" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1322" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1322" t="inlineStr"/>
     </row>
@@ -43130,10 +43130,10 @@
         <v>880</v>
       </c>
       <c r="H1323" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1323" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1323" t="inlineStr"/>
     </row>
@@ -43162,10 +43162,10 @@
         <v>880</v>
       </c>
       <c r="H1324" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1324" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1324" t="inlineStr"/>
     </row>
@@ -43194,10 +43194,10 @@
         <v>880</v>
       </c>
       <c r="H1325" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1325" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1325" t="inlineStr"/>
     </row>
@@ -43226,10 +43226,10 @@
         <v>880</v>
       </c>
       <c r="H1326" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1326" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1326" t="inlineStr"/>
     </row>
@@ -43258,10 +43258,10 @@
         <v>880</v>
       </c>
       <c r="H1327" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1327" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1327" t="inlineStr"/>
     </row>
@@ -43290,10 +43290,10 @@
         <v>880</v>
       </c>
       <c r="H1328" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1328" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1328" t="inlineStr"/>
     </row>
@@ -43322,10 +43322,10 @@
         <v>880</v>
       </c>
       <c r="H1329" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1329" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1329" t="inlineStr"/>
     </row>
@@ -43354,10 +43354,10 @@
         <v>880</v>
       </c>
       <c r="H1330" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1330" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1330" t="inlineStr"/>
     </row>
@@ -43386,10 +43386,10 @@
         <v>880</v>
       </c>
       <c r="H1331" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1331" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1331" t="inlineStr"/>
     </row>
@@ -43418,10 +43418,10 @@
         <v>880</v>
       </c>
       <c r="H1332" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1332" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1332" t="inlineStr"/>
     </row>
@@ -43450,10 +43450,10 @@
         <v>880</v>
       </c>
       <c r="H1333" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1333" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1333" t="inlineStr"/>
     </row>
@@ -43482,10 +43482,10 @@
         <v>880</v>
       </c>
       <c r="H1334" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1334" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1334" t="inlineStr"/>
     </row>
@@ -43514,10 +43514,10 @@
         <v>880</v>
       </c>
       <c r="H1335" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1335" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1335" t="inlineStr"/>
     </row>
@@ -43546,10 +43546,10 @@
         <v>880</v>
       </c>
       <c r="H1336" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1336" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1336" t="inlineStr"/>
     </row>
@@ -43578,10 +43578,10 @@
         <v>880</v>
       </c>
       <c r="H1337" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1337" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1337" t="inlineStr"/>
     </row>
@@ -43610,10 +43610,10 @@
         <v>880</v>
       </c>
       <c r="H1338" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1338" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1338" t="inlineStr"/>
     </row>
@@ -43642,10 +43642,10 @@
         <v>880</v>
       </c>
       <c r="H1339" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1339" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1339" t="inlineStr"/>
     </row>
@@ -43674,10 +43674,10 @@
         <v>880</v>
       </c>
       <c r="H1340" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1340" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1340" t="inlineStr"/>
     </row>
@@ -43706,10 +43706,10 @@
         <v>880</v>
       </c>
       <c r="H1341" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1341" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1341" t="inlineStr"/>
     </row>
@@ -43738,10 +43738,10 @@
         <v>880</v>
       </c>
       <c r="H1342" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1342" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1342" t="inlineStr"/>
     </row>
@@ -43770,10 +43770,10 @@
         <v>880</v>
       </c>
       <c r="H1343" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1343" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1343" t="inlineStr"/>
     </row>
@@ -43802,10 +43802,10 @@
         <v>880</v>
       </c>
       <c r="H1344" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1344" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1344" t="inlineStr"/>
     </row>
@@ -43834,10 +43834,10 @@
         <v>880</v>
       </c>
       <c r="H1345" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1345" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1345" t="inlineStr"/>
     </row>
@@ -43866,10 +43866,10 @@
         <v>880</v>
       </c>
       <c r="H1346" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1346" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1346" t="inlineStr"/>
     </row>
@@ -43898,10 +43898,10 @@
         <v>880</v>
       </c>
       <c r="H1347" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1347" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1347" t="inlineStr"/>
     </row>
@@ -43930,10 +43930,10 @@
         <v>880</v>
       </c>
       <c r="H1348" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1348" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1348" t="inlineStr"/>
     </row>
@@ -43962,10 +43962,10 @@
         <v>880</v>
       </c>
       <c r="H1349" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1349" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1349" t="inlineStr"/>
     </row>
@@ -43994,10 +43994,10 @@
         <v>880</v>
       </c>
       <c r="H1350" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1350" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1350" t="inlineStr"/>
     </row>
@@ -44026,10 +44026,10 @@
         <v>880</v>
       </c>
       <c r="H1351" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1351" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1351" t="inlineStr"/>
     </row>
@@ -44058,10 +44058,10 @@
         <v>880</v>
       </c>
       <c r="H1352" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1352" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1352" t="inlineStr"/>
     </row>
@@ -44090,10 +44090,10 @@
         <v>80</v>
       </c>
       <c r="H1353" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1353" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1353" t="inlineStr"/>
     </row>
@@ -44122,10 +44122,10 @@
         <v>880</v>
       </c>
       <c r="H1354" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1354" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1354" t="inlineStr"/>
     </row>
@@ -44154,10 +44154,10 @@
         <v>880</v>
       </c>
       <c r="H1355" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1355" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1355" t="inlineStr"/>
     </row>
@@ -44186,10 +44186,10 @@
         <v>880</v>
       </c>
       <c r="H1356" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1356" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1356" t="inlineStr"/>
     </row>
@@ -44218,10 +44218,10 @@
         <v>880</v>
       </c>
       <c r="H1357" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1357" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1357" t="inlineStr"/>
     </row>
@@ -44250,10 +44250,10 @@
         <v>880</v>
       </c>
       <c r="H1358" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1358" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1358" t="inlineStr"/>
     </row>
@@ -44282,10 +44282,10 @@
         <v>880</v>
       </c>
       <c r="H1359" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1359" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1359" t="inlineStr"/>
     </row>
@@ -44314,10 +44314,10 @@
         <v>880</v>
       </c>
       <c r="H1360" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1360" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1360" t="inlineStr"/>
     </row>
@@ -44346,10 +44346,10 @@
         <v>880</v>
       </c>
       <c r="H1361" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1361" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1361" t="inlineStr"/>
     </row>
@@ -44378,10 +44378,10 @@
         <v>480</v>
       </c>
       <c r="H1362" t="n">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I1362" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1362" t="inlineStr"/>
     </row>
@@ -44410,10 +44410,10 @@
         <v>880</v>
       </c>
       <c r="H1363" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1363" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1363" t="inlineStr"/>
     </row>
@@ -44442,10 +44442,10 @@
         <v>880</v>
       </c>
       <c r="H1364" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1364" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1364" t="inlineStr"/>
     </row>
@@ -44474,10 +44474,10 @@
         <v>880</v>
       </c>
       <c r="H1365" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1365" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1365" t="inlineStr"/>
     </row>
@@ -44506,10 +44506,10 @@
         <v>480</v>
       </c>
       <c r="H1366" t="n">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I1366" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1366" t="inlineStr"/>
     </row>
@@ -44538,10 +44538,10 @@
         <v>880</v>
       </c>
       <c r="H1367" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1367" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1367" t="inlineStr"/>
     </row>
@@ -44570,10 +44570,10 @@
         <v>880</v>
       </c>
       <c r="H1368" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1368" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1368" t="inlineStr"/>
     </row>
@@ -44602,10 +44602,10 @@
         <v>880</v>
       </c>
       <c r="H1369" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1369" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1369" t="inlineStr"/>
     </row>
@@ -44634,10 +44634,10 @@
         <v>480</v>
       </c>
       <c r="H1370" t="n">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I1370" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1370" t="inlineStr"/>
     </row>
@@ -44666,10 +44666,10 @@
         <v>280</v>
       </c>
       <c r="H1371" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I1371" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="J1371" t="inlineStr"/>
     </row>
@@ -44698,10 +44698,10 @@
         <v>880</v>
       </c>
       <c r="H1372" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1372" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1372" t="inlineStr"/>
     </row>
@@ -44730,10 +44730,10 @@
         <v>880</v>
       </c>
       <c r="H1373" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1373" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1373" t="inlineStr"/>
     </row>
@@ -44762,10 +44762,10 @@
         <v>880</v>
       </c>
       <c r="H1374" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1374" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1374" t="inlineStr"/>
     </row>
@@ -44794,10 +44794,10 @@
         <v>880</v>
       </c>
       <c r="H1375" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1375" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1375" t="inlineStr"/>
     </row>
@@ -44826,10 +44826,10 @@
         <v>880</v>
       </c>
       <c r="H1376" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1376" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1376" t="inlineStr"/>
     </row>
@@ -44858,10 +44858,10 @@
         <v>880</v>
       </c>
       <c r="H1377" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1377" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1377" t="inlineStr"/>
     </row>
@@ -44890,10 +44890,10 @@
         <v>880</v>
       </c>
       <c r="H1378" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1378" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1378" t="inlineStr"/>
     </row>
@@ -44922,10 +44922,10 @@
         <v>880</v>
       </c>
       <c r="H1379" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1379" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1379" t="inlineStr"/>
     </row>
@@ -44954,10 +44954,10 @@
         <v>880</v>
       </c>
       <c r="H1380" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1380" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1380" t="inlineStr"/>
     </row>
@@ -44986,10 +44986,10 @@
         <v>880</v>
       </c>
       <c r="H1381" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1381" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1381" t="inlineStr"/>
     </row>
@@ -45018,10 +45018,10 @@
         <v>880</v>
       </c>
       <c r="H1382" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1382" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1382" t="inlineStr"/>
     </row>
@@ -45050,10 +45050,10 @@
         <v>880</v>
       </c>
       <c r="H1383" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1383" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1383" t="inlineStr"/>
     </row>
@@ -45082,10 +45082,10 @@
         <v>880</v>
       </c>
       <c r="H1384" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1384" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1384" t="inlineStr"/>
     </row>
@@ -45114,10 +45114,10 @@
         <v>880</v>
       </c>
       <c r="H1385" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1385" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1385" t="inlineStr"/>
     </row>
@@ -45146,10 +45146,10 @@
         <v>880</v>
       </c>
       <c r="H1386" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1386" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1386" t="inlineStr"/>
     </row>
@@ -45178,10 +45178,10 @@
         <v>880</v>
       </c>
       <c r="H1387" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1387" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1387" t="inlineStr"/>
     </row>
@@ -45210,10 +45210,10 @@
         <v>80</v>
       </c>
       <c r="H1388" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1388" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1388" t="inlineStr"/>
     </row>
@@ -45242,10 +45242,10 @@
         <v>880</v>
       </c>
       <c r="H1389" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1389" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1389" t="inlineStr"/>
     </row>
@@ -45278,10 +45278,10 @@
         <v>880</v>
       </c>
       <c r="H1390" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1390" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1390" t="inlineStr"/>
     </row>
@@ -45310,10 +45310,10 @@
         <v>880</v>
       </c>
       <c r="H1391" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1391" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1391" t="inlineStr"/>
     </row>
@@ -45342,10 +45342,10 @@
         <v>480</v>
       </c>
       <c r="H1392" t="n">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I1392" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1392" t="inlineStr"/>
     </row>
@@ -45374,10 +45374,10 @@
         <v>880</v>
       </c>
       <c r="H1393" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1393" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1393" t="inlineStr"/>
     </row>
@@ -45406,10 +45406,10 @@
         <v>880</v>
       </c>
       <c r="H1394" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1394" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1394" t="inlineStr"/>
     </row>
@@ -45438,10 +45438,10 @@
         <v>280</v>
       </c>
       <c r="H1395" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I1395" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="J1395" t="inlineStr"/>
     </row>
@@ -45470,10 +45470,10 @@
         <v>880</v>
       </c>
       <c r="H1396" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1396" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1396" t="inlineStr"/>
     </row>
@@ -45502,10 +45502,10 @@
         <v>880</v>
       </c>
       <c r="H1397" t="n">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="I1397" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J1397" t="inlineStr"/>
     </row>

--- a/data/VR_MENSAL_GERADO.xlsx
+++ b/data/VR_MENSAL_GERADO.xlsx
@@ -504,10 +504,10 @@
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G2" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H2" t="n">
         <v>660</v>
@@ -32088,10 +32088,10 @@
         <v>22</v>
       </c>
       <c r="F979" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G979" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H979" t="n">
         <v>660</v>
@@ -32120,10 +32120,10 @@
         <v>22</v>
       </c>
       <c r="F980" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G980" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H980" t="n">
         <v>660</v>
@@ -32152,10 +32152,10 @@
         <v>22</v>
       </c>
       <c r="F981" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G981" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H981" t="n">
         <v>660</v>
@@ -32184,10 +32184,10 @@
         <v>22</v>
       </c>
       <c r="F982" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G982" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H982" t="n">
         <v>660</v>
@@ -32216,10 +32216,10 @@
         <v>22</v>
       </c>
       <c r="F983" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G983" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H983" t="n">
         <v>660</v>
@@ -32248,10 +32248,10 @@
         <v>22</v>
       </c>
       <c r="F984" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G984" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H984" t="n">
         <v>660</v>
@@ -32280,10 +32280,10 @@
         <v>22</v>
       </c>
       <c r="F985" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G985" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H985" t="n">
         <v>660</v>
@@ -32312,10 +32312,10 @@
         <v>22</v>
       </c>
       <c r="F986" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G986" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H986" t="n">
         <v>660</v>
@@ -32344,10 +32344,10 @@
         <v>22</v>
       </c>
       <c r="F987" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G987" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H987" t="n">
         <v>660</v>
@@ -32376,10 +32376,10 @@
         <v>22</v>
       </c>
       <c r="F988" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G988" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H988" t="n">
         <v>660</v>
@@ -32408,10 +32408,10 @@
         <v>22</v>
       </c>
       <c r="F989" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G989" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H989" t="n">
         <v>660</v>
@@ -32440,10 +32440,10 @@
         <v>22</v>
       </c>
       <c r="F990" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G990" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H990" t="n">
         <v>660</v>
@@ -32472,10 +32472,10 @@
         <v>22</v>
       </c>
       <c r="F991" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G991" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H991" t="n">
         <v>660</v>
@@ -32504,10 +32504,10 @@
         <v>22</v>
       </c>
       <c r="F992" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G992" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H992" t="n">
         <v>660</v>
@@ -32536,10 +32536,10 @@
         <v>22</v>
       </c>
       <c r="F993" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G993" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H993" t="n">
         <v>660</v>
@@ -32568,10 +32568,10 @@
         <v>22</v>
       </c>
       <c r="F994" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G994" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H994" t="n">
         <v>660</v>
@@ -32600,10 +32600,10 @@
         <v>22</v>
       </c>
       <c r="F995" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G995" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H995" t="n">
         <v>660</v>
@@ -32632,10 +32632,10 @@
         <v>22</v>
       </c>
       <c r="F996" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G996" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H996" t="n">
         <v>660</v>
@@ -32664,10 +32664,10 @@
         <v>22</v>
       </c>
       <c r="F997" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G997" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H997" t="n">
         <v>660</v>
@@ -32696,10 +32696,10 @@
         <v>22</v>
       </c>
       <c r="F998" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G998" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H998" t="n">
         <v>660</v>
@@ -32728,10 +32728,10 @@
         <v>22</v>
       </c>
       <c r="F999" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G999" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H999" t="n">
         <v>660</v>
@@ -32760,10 +32760,10 @@
         <v>22</v>
       </c>
       <c r="F1000" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1000" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1000" t="n">
         <v>660</v>
@@ -32792,7 +32792,7 @@
         <v>0</v>
       </c>
       <c r="F1001" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1001" t="n">
         <v>0</v>
@@ -32824,10 +32824,10 @@
         <v>22</v>
       </c>
       <c r="F1002" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1002" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1002" t="n">
         <v>660</v>
@@ -32856,10 +32856,10 @@
         <v>22</v>
       </c>
       <c r="F1003" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1003" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1003" t="n">
         <v>660</v>
@@ -32888,10 +32888,10 @@
         <v>22</v>
       </c>
       <c r="F1004" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1004" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1004" t="n">
         <v>660</v>
@@ -32920,10 +32920,10 @@
         <v>22</v>
       </c>
       <c r="F1005" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1005" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1005" t="n">
         <v>660</v>
@@ -32952,10 +32952,10 @@
         <v>22</v>
       </c>
       <c r="F1006" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1006" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1006" t="n">
         <v>660</v>
@@ -32984,10 +32984,10 @@
         <v>22</v>
       </c>
       <c r="F1007" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1007" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1007" t="n">
         <v>660</v>
@@ -33016,10 +33016,10 @@
         <v>22</v>
       </c>
       <c r="F1008" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1008" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1008" t="n">
         <v>660</v>
@@ -33052,10 +33052,10 @@
         <v>22</v>
       </c>
       <c r="F1009" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1009" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1009" t="n">
         <v>660</v>
@@ -33084,10 +33084,10 @@
         <v>22</v>
       </c>
       <c r="F1010" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1010" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1010" t="n">
         <v>660</v>
@@ -33116,10 +33116,10 @@
         <v>22</v>
       </c>
       <c r="F1011" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1011" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1011" t="n">
         <v>660</v>
@@ -33148,10 +33148,10 @@
         <v>22</v>
       </c>
       <c r="F1012" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1012" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1012" t="n">
         <v>660</v>
@@ -33180,10 +33180,10 @@
         <v>22</v>
       </c>
       <c r="F1013" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1013" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1013" t="n">
         <v>660</v>
@@ -33212,10 +33212,10 @@
         <v>22</v>
       </c>
       <c r="F1014" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1014" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1014" t="n">
         <v>660</v>
@@ -33244,10 +33244,10 @@
         <v>22</v>
       </c>
       <c r="F1015" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1015" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1015" t="n">
         <v>660</v>
@@ -33276,10 +33276,10 @@
         <v>22</v>
       </c>
       <c r="F1016" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1016" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1016" t="n">
         <v>660</v>
@@ -33308,10 +33308,10 @@
         <v>22</v>
       </c>
       <c r="F1017" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1017" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1017" t="n">
         <v>660</v>
@@ -33340,10 +33340,10 @@
         <v>22</v>
       </c>
       <c r="F1018" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1018" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1018" t="n">
         <v>660</v>
@@ -33372,10 +33372,10 @@
         <v>22</v>
       </c>
       <c r="F1019" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1019" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1019" t="n">
         <v>660</v>
@@ -33408,10 +33408,10 @@
         <v>16</v>
       </c>
       <c r="F1020" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1020" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="H1020" t="n">
         <v>480</v>
@@ -33444,10 +33444,10 @@
         <v>22</v>
       </c>
       <c r="F1021" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1021" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1021" t="n">
         <v>660</v>
@@ -33476,10 +33476,10 @@
         <v>22</v>
       </c>
       <c r="F1022" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1022" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1022" t="n">
         <v>660</v>
@@ -33508,10 +33508,10 @@
         <v>22</v>
       </c>
       <c r="F1023" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1023" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1023" t="n">
         <v>660</v>
@@ -33540,10 +33540,10 @@
         <v>22</v>
       </c>
       <c r="F1024" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1024" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1024" t="n">
         <v>660</v>
@@ -33572,10 +33572,10 @@
         <v>22</v>
       </c>
       <c r="F1025" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1025" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1025" t="n">
         <v>660</v>
@@ -33604,10 +33604,10 @@
         <v>22</v>
       </c>
       <c r="F1026" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1026" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1026" t="n">
         <v>660</v>
@@ -33636,10 +33636,10 @@
         <v>22</v>
       </c>
       <c r="F1027" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1027" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1027" t="n">
         <v>660</v>
@@ -33668,10 +33668,10 @@
         <v>22</v>
       </c>
       <c r="F1028" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1028" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1028" t="n">
         <v>660</v>
@@ -33700,10 +33700,10 @@
         <v>22</v>
       </c>
       <c r="F1029" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1029" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1029" t="n">
         <v>660</v>
@@ -33732,10 +33732,10 @@
         <v>22</v>
       </c>
       <c r="F1030" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1030" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1030" t="n">
         <v>660</v>
@@ -33764,10 +33764,10 @@
         <v>22</v>
       </c>
       <c r="F1031" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1031" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1031" t="n">
         <v>660</v>
@@ -33796,10 +33796,10 @@
         <v>22</v>
       </c>
       <c r="F1032" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1032" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1032" t="n">
         <v>660</v>
@@ -33828,10 +33828,10 @@
         <v>22</v>
       </c>
       <c r="F1033" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1033" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1033" t="n">
         <v>660</v>
@@ -33860,10 +33860,10 @@
         <v>22</v>
       </c>
       <c r="F1034" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1034" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1034" t="n">
         <v>660</v>
@@ -33892,10 +33892,10 @@
         <v>22</v>
       </c>
       <c r="F1035" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1035" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1035" t="n">
         <v>660</v>
@@ -33924,10 +33924,10 @@
         <v>22</v>
       </c>
       <c r="F1036" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1036" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1036" t="n">
         <v>660</v>
@@ -33956,10 +33956,10 @@
         <v>22</v>
       </c>
       <c r="F1037" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1037" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1037" t="n">
         <v>660</v>
@@ -33988,10 +33988,10 @@
         <v>22</v>
       </c>
       <c r="F1038" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1038" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1038" t="n">
         <v>660</v>
@@ -34020,10 +34020,10 @@
         <v>22</v>
       </c>
       <c r="F1039" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1039" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1039" t="n">
         <v>660</v>
@@ -34052,10 +34052,10 @@
         <v>22</v>
       </c>
       <c r="F1040" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1040" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1040" t="n">
         <v>660</v>
@@ -34084,10 +34084,10 @@
         <v>22</v>
       </c>
       <c r="F1041" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1041" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1041" t="n">
         <v>660</v>
@@ -34116,10 +34116,10 @@
         <v>22</v>
       </c>
       <c r="F1042" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1042" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1042" t="n">
         <v>660</v>
@@ -34148,10 +34148,10 @@
         <v>22</v>
       </c>
       <c r="F1043" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1043" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1043" t="n">
         <v>660</v>
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="F1044" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1044" t="n">
         <v>0</v>
@@ -34212,10 +34212,10 @@
         <v>22</v>
       </c>
       <c r="F1045" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1045" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1045" t="n">
         <v>660</v>
@@ -34244,10 +34244,10 @@
         <v>22</v>
       </c>
       <c r="F1046" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1046" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1046" t="n">
         <v>660</v>
@@ -34280,10 +34280,10 @@
         <v>13</v>
       </c>
       <c r="F1047" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1047" t="n">
-        <v>520</v>
+        <v>487.5</v>
       </c>
       <c r="H1047" t="n">
         <v>390</v>
@@ -34316,10 +34316,10 @@
         <v>22</v>
       </c>
       <c r="F1048" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1048" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1048" t="n">
         <v>660</v>
@@ -34348,10 +34348,10 @@
         <v>22</v>
       </c>
       <c r="F1049" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1049" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1049" t="n">
         <v>660</v>
@@ -34380,10 +34380,10 @@
         <v>22</v>
       </c>
       <c r="F1050" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1050" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1050" t="n">
         <v>660</v>
@@ -34412,10 +34412,10 @@
         <v>22</v>
       </c>
       <c r="F1051" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1051" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1051" t="n">
         <v>660</v>
@@ -34444,10 +34444,10 @@
         <v>22</v>
       </c>
       <c r="F1052" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1052" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1052" t="n">
         <v>660</v>
@@ -34476,10 +34476,10 @@
         <v>22</v>
       </c>
       <c r="F1053" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1053" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1053" t="n">
         <v>660</v>
@@ -34508,10 +34508,10 @@
         <v>22</v>
       </c>
       <c r="F1054" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1054" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1054" t="n">
         <v>660</v>
@@ -34540,7 +34540,7 @@
         <v>0</v>
       </c>
       <c r="F1055" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1055" t="n">
         <v>0</v>
@@ -34572,10 +34572,10 @@
         <v>22</v>
       </c>
       <c r="F1056" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1056" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1056" t="n">
         <v>660</v>
@@ -34604,10 +34604,10 @@
         <v>22</v>
       </c>
       <c r="F1057" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1057" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1057" t="n">
         <v>660</v>
@@ -34636,10 +34636,10 @@
         <v>22</v>
       </c>
       <c r="F1058" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1058" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1058" t="n">
         <v>660</v>
@@ -34668,10 +34668,10 @@
         <v>22</v>
       </c>
       <c r="F1059" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1059" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1059" t="n">
         <v>660</v>
@@ -34700,10 +34700,10 @@
         <v>22</v>
       </c>
       <c r="F1060" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1060" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1060" t="n">
         <v>660</v>
@@ -34732,7 +34732,7 @@
         <v>0</v>
       </c>
       <c r="F1061" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1061" t="n">
         <v>0</v>
@@ -34764,10 +34764,10 @@
         <v>22</v>
       </c>
       <c r="F1062" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1062" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1062" t="n">
         <v>660</v>
@@ -34800,10 +34800,10 @@
         <v>22</v>
       </c>
       <c r="F1063" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1063" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1063" t="n">
         <v>660</v>
@@ -34832,10 +34832,10 @@
         <v>22</v>
       </c>
       <c r="F1064" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1064" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1064" t="n">
         <v>660</v>
@@ -34864,10 +34864,10 @@
         <v>22</v>
       </c>
       <c r="F1065" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1065" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1065" t="n">
         <v>660</v>
@@ -34896,10 +34896,10 @@
         <v>22</v>
       </c>
       <c r="F1066" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1066" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1066" t="n">
         <v>660</v>
@@ -34928,10 +34928,10 @@
         <v>22</v>
       </c>
       <c r="F1067" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1067" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1067" t="n">
         <v>660</v>
@@ -34960,10 +34960,10 @@
         <v>22</v>
       </c>
       <c r="F1068" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1068" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1068" t="n">
         <v>660</v>
@@ -34992,10 +34992,10 @@
         <v>22</v>
       </c>
       <c r="F1069" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1069" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1069" t="n">
         <v>660</v>
@@ -35024,10 +35024,10 @@
         <v>22</v>
       </c>
       <c r="F1070" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1070" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1070" t="n">
         <v>660</v>
@@ -35056,10 +35056,10 @@
         <v>22</v>
       </c>
       <c r="F1071" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1071" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1071" t="n">
         <v>660</v>
@@ -35088,10 +35088,10 @@
         <v>22</v>
       </c>
       <c r="F1072" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1072" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1072" t="n">
         <v>660</v>
@@ -35120,10 +35120,10 @@
         <v>22</v>
       </c>
       <c r="F1073" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1073" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1073" t="n">
         <v>660</v>
@@ -35152,10 +35152,10 @@
         <v>22</v>
       </c>
       <c r="F1074" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1074" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1074" t="n">
         <v>660</v>
@@ -35184,10 +35184,10 @@
         <v>22</v>
       </c>
       <c r="F1075" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1075" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1075" t="n">
         <v>660</v>
@@ -35216,10 +35216,10 @@
         <v>22</v>
       </c>
       <c r="F1076" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1076" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1076" t="n">
         <v>660</v>
@@ -35248,10 +35248,10 @@
         <v>22</v>
       </c>
       <c r="F1077" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1077" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1077" t="n">
         <v>660</v>
@@ -35280,10 +35280,10 @@
         <v>22</v>
       </c>
       <c r="F1078" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1078" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1078" t="n">
         <v>660</v>
@@ -35312,10 +35312,10 @@
         <v>22</v>
       </c>
       <c r="F1079" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1079" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1079" t="n">
         <v>660</v>
@@ -35344,10 +35344,10 @@
         <v>22</v>
       </c>
       <c r="F1080" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1080" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1080" t="n">
         <v>660</v>
@@ -35376,10 +35376,10 @@
         <v>22</v>
       </c>
       <c r="F1081" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1081" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1081" t="n">
         <v>660</v>
@@ -35440,10 +35440,10 @@
         <v>22</v>
       </c>
       <c r="F1083" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1083" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1083" t="n">
         <v>660</v>
@@ -35472,10 +35472,10 @@
         <v>22</v>
       </c>
       <c r="F1084" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1084" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1084" t="n">
         <v>660</v>
@@ -35504,10 +35504,10 @@
         <v>22</v>
       </c>
       <c r="F1085" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1085" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1085" t="n">
         <v>660</v>
@@ -35536,10 +35536,10 @@
         <v>22</v>
       </c>
       <c r="F1086" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1086" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1086" t="n">
         <v>660</v>
@@ -35568,10 +35568,10 @@
         <v>22</v>
       </c>
       <c r="F1087" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1087" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1087" t="n">
         <v>660</v>
@@ -35600,10 +35600,10 @@
         <v>22</v>
       </c>
       <c r="F1088" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1088" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1088" t="n">
         <v>660</v>
@@ -35632,10 +35632,10 @@
         <v>22</v>
       </c>
       <c r="F1089" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1089" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1089" t="n">
         <v>660</v>
@@ -35664,10 +35664,10 @@
         <v>22</v>
       </c>
       <c r="F1090" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1090" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1090" t="n">
         <v>660</v>
@@ -35696,10 +35696,10 @@
         <v>22</v>
       </c>
       <c r="F1091" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1091" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1091" t="n">
         <v>660</v>
@@ -35728,10 +35728,10 @@
         <v>22</v>
       </c>
       <c r="F1092" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1092" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1092" t="n">
         <v>660</v>
@@ -35760,10 +35760,10 @@
         <v>22</v>
       </c>
       <c r="F1093" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1093" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1093" t="n">
         <v>660</v>
@@ -35792,10 +35792,10 @@
         <v>22</v>
       </c>
       <c r="F1094" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1094" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1094" t="n">
         <v>660</v>
@@ -35824,10 +35824,10 @@
         <v>22</v>
       </c>
       <c r="F1095" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1095" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1095" t="n">
         <v>660</v>
@@ -35856,10 +35856,10 @@
         <v>17</v>
       </c>
       <c r="F1096" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1096" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1096" t="n">
         <v>510</v>
@@ -35888,10 +35888,10 @@
         <v>22</v>
       </c>
       <c r="F1097" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1097" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1097" t="n">
         <v>660</v>
@@ -35920,10 +35920,10 @@
         <v>22</v>
       </c>
       <c r="F1098" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1098" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1098" t="n">
         <v>660</v>
@@ -35952,10 +35952,10 @@
         <v>22</v>
       </c>
       <c r="F1099" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1099" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1099" t="n">
         <v>660</v>
@@ -35984,10 +35984,10 @@
         <v>22</v>
       </c>
       <c r="F1100" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1100" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1100" t="n">
         <v>660</v>
@@ -36016,10 +36016,10 @@
         <v>22</v>
       </c>
       <c r="F1101" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1101" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1101" t="n">
         <v>660</v>
@@ -36048,10 +36048,10 @@
         <v>22</v>
       </c>
       <c r="F1102" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1102" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1102" t="n">
         <v>660</v>
@@ -36080,10 +36080,10 @@
         <v>22</v>
       </c>
       <c r="F1103" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1103" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1103" t="n">
         <v>660</v>
@@ -36112,10 +36112,10 @@
         <v>22</v>
       </c>
       <c r="F1104" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1104" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1104" t="n">
         <v>660</v>
@@ -36144,10 +36144,10 @@
         <v>22</v>
       </c>
       <c r="F1105" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1105" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1105" t="n">
         <v>660</v>
@@ -36176,10 +36176,10 @@
         <v>22</v>
       </c>
       <c r="F1106" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1106" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1106" t="n">
         <v>660</v>
@@ -36208,10 +36208,10 @@
         <v>22</v>
       </c>
       <c r="F1107" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1107" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1107" t="n">
         <v>660</v>
@@ -36240,10 +36240,10 @@
         <v>22</v>
       </c>
       <c r="F1108" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1108" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1108" t="n">
         <v>660</v>
@@ -36272,10 +36272,10 @@
         <v>22</v>
       </c>
       <c r="F1109" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1109" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1109" t="n">
         <v>660</v>
@@ -36304,10 +36304,10 @@
         <v>22</v>
       </c>
       <c r="F1110" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1110" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1110" t="n">
         <v>660</v>
@@ -36336,10 +36336,10 @@
         <v>22</v>
       </c>
       <c r="F1111" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1111" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1111" t="n">
         <v>660</v>
@@ -36368,10 +36368,10 @@
         <v>17</v>
       </c>
       <c r="F1112" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1112" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1112" t="n">
         <v>510</v>
@@ -36400,10 +36400,10 @@
         <v>22</v>
       </c>
       <c r="F1113" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1113" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1113" t="n">
         <v>660</v>
@@ -36432,10 +36432,10 @@
         <v>22</v>
       </c>
       <c r="F1114" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1114" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1114" t="n">
         <v>660</v>
@@ -36464,10 +36464,10 @@
         <v>22</v>
       </c>
       <c r="F1115" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1115" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1115" t="n">
         <v>660</v>
@@ -36496,10 +36496,10 @@
         <v>22</v>
       </c>
       <c r="F1116" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1116" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1116" t="n">
         <v>660</v>
@@ -36528,10 +36528,10 @@
         <v>22</v>
       </c>
       <c r="F1117" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1117" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1117" t="n">
         <v>660</v>
@@ -36560,10 +36560,10 @@
         <v>22</v>
       </c>
       <c r="F1118" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1118" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1118" t="n">
         <v>660</v>
@@ -36592,10 +36592,10 @@
         <v>22</v>
       </c>
       <c r="F1119" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1119" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1119" t="n">
         <v>660</v>
@@ -36624,10 +36624,10 @@
         <v>22</v>
       </c>
       <c r="F1120" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1120" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1120" t="n">
         <v>660</v>
@@ -36656,10 +36656,10 @@
         <v>22</v>
       </c>
       <c r="F1121" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1121" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1121" t="n">
         <v>660</v>
@@ -36688,10 +36688,10 @@
         <v>22</v>
       </c>
       <c r="F1122" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1122" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1122" t="n">
         <v>660</v>
@@ -36720,10 +36720,10 @@
         <v>17</v>
       </c>
       <c r="F1123" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1123" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1123" t="n">
         <v>510</v>
@@ -36752,10 +36752,10 @@
         <v>22</v>
       </c>
       <c r="F1124" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1124" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1124" t="n">
         <v>660</v>
@@ -36784,10 +36784,10 @@
         <v>22</v>
       </c>
       <c r="F1125" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1125" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1125" t="n">
         <v>660</v>
@@ -36816,10 +36816,10 @@
         <v>22</v>
       </c>
       <c r="F1126" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1126" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1126" t="n">
         <v>660</v>
@@ -36848,10 +36848,10 @@
         <v>22</v>
       </c>
       <c r="F1127" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1127" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1127" t="n">
         <v>660</v>
@@ -36880,10 +36880,10 @@
         <v>22</v>
       </c>
       <c r="F1128" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1128" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1128" t="n">
         <v>660</v>
@@ -36912,10 +36912,10 @@
         <v>22</v>
       </c>
       <c r="F1129" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1129" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1129" t="n">
         <v>660</v>
@@ -36944,10 +36944,10 @@
         <v>22</v>
       </c>
       <c r="F1130" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1130" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1130" t="n">
         <v>660</v>
@@ -36976,10 +36976,10 @@
         <v>22</v>
       </c>
       <c r="F1131" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1131" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1131" t="n">
         <v>660</v>
@@ -37008,10 +37008,10 @@
         <v>22</v>
       </c>
       <c r="F1132" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1132" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1132" t="n">
         <v>660</v>
@@ -37040,10 +37040,10 @@
         <v>22</v>
       </c>
       <c r="F1133" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1133" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1133" t="n">
         <v>660</v>
@@ -37072,10 +37072,10 @@
         <v>22</v>
       </c>
       <c r="F1134" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1134" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1134" t="n">
         <v>660</v>
@@ -37104,10 +37104,10 @@
         <v>22</v>
       </c>
       <c r="F1135" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1135" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1135" t="n">
         <v>660</v>
@@ -37136,10 +37136,10 @@
         <v>22</v>
       </c>
       <c r="F1136" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1136" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1136" t="n">
         <v>660</v>
@@ -37168,10 +37168,10 @@
         <v>17</v>
       </c>
       <c r="F1137" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1137" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1137" t="n">
         <v>510</v>
@@ -37200,10 +37200,10 @@
         <v>22</v>
       </c>
       <c r="F1138" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1138" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1138" t="n">
         <v>660</v>
@@ -37232,10 +37232,10 @@
         <v>22</v>
       </c>
       <c r="F1139" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1139" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1139" t="n">
         <v>660</v>
@@ -37264,10 +37264,10 @@
         <v>22</v>
       </c>
       <c r="F1140" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1140" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1140" t="n">
         <v>660</v>
@@ -37296,10 +37296,10 @@
         <v>22</v>
       </c>
       <c r="F1141" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1141" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1141" t="n">
         <v>660</v>
@@ -37328,10 +37328,10 @@
         <v>22</v>
       </c>
       <c r="F1142" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1142" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1142" t="n">
         <v>660</v>
@@ -37360,10 +37360,10 @@
         <v>22</v>
       </c>
       <c r="F1143" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1143" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1143" t="n">
         <v>660</v>
@@ -37392,10 +37392,10 @@
         <v>22</v>
       </c>
       <c r="F1144" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1144" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1144" t="n">
         <v>660</v>
@@ -37424,10 +37424,10 @@
         <v>22</v>
       </c>
       <c r="F1145" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1145" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1145" t="n">
         <v>660</v>
@@ -37456,10 +37456,10 @@
         <v>22</v>
       </c>
       <c r="F1146" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1146" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1146" t="n">
         <v>660</v>
@@ -37488,10 +37488,10 @@
         <v>22</v>
       </c>
       <c r="F1147" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1147" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1147" t="n">
         <v>660</v>
@@ -37520,10 +37520,10 @@
         <v>22</v>
       </c>
       <c r="F1148" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1148" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1148" t="n">
         <v>660</v>
@@ -37552,10 +37552,10 @@
         <v>22</v>
       </c>
       <c r="F1149" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1149" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1149" t="n">
         <v>660</v>
@@ -37584,10 +37584,10 @@
         <v>22</v>
       </c>
       <c r="F1150" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1150" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1150" t="n">
         <v>660</v>
@@ -37616,10 +37616,10 @@
         <v>22</v>
       </c>
       <c r="F1151" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1151" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1151" t="n">
         <v>660</v>
@@ -37648,10 +37648,10 @@
         <v>22</v>
       </c>
       <c r="F1152" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1152" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1152" t="n">
         <v>660</v>
@@ -37680,10 +37680,10 @@
         <v>22</v>
       </c>
       <c r="F1153" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1153" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1153" t="n">
         <v>660</v>
@@ -37712,10 +37712,10 @@
         <v>22</v>
       </c>
       <c r="F1154" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1154" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1154" t="n">
         <v>660</v>
@@ -37744,10 +37744,10 @@
         <v>22</v>
       </c>
       <c r="F1155" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1155" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1155" t="n">
         <v>660</v>
@@ -37776,10 +37776,10 @@
         <v>22</v>
       </c>
       <c r="F1156" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1156" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1156" t="n">
         <v>660</v>
@@ -37808,10 +37808,10 @@
         <v>22</v>
       </c>
       <c r="F1157" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1157" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1157" t="n">
         <v>660</v>
@@ -37840,10 +37840,10 @@
         <v>22</v>
       </c>
       <c r="F1158" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1158" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1158" t="n">
         <v>660</v>
@@ -37872,10 +37872,10 @@
         <v>22</v>
       </c>
       <c r="F1159" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1159" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1159" t="n">
         <v>660</v>
@@ -37904,10 +37904,10 @@
         <v>22</v>
       </c>
       <c r="F1160" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1160" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1160" t="n">
         <v>660</v>
@@ -37936,10 +37936,10 @@
         <v>22</v>
       </c>
       <c r="F1161" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1161" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1161" t="n">
         <v>660</v>
@@ -37968,10 +37968,10 @@
         <v>22</v>
       </c>
       <c r="F1162" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1162" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1162" t="n">
         <v>660</v>
@@ -38000,10 +38000,10 @@
         <v>22</v>
       </c>
       <c r="F1163" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1163" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1163" t="n">
         <v>660</v>
@@ -38032,10 +38032,10 @@
         <v>22</v>
       </c>
       <c r="F1164" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1164" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1164" t="n">
         <v>660</v>
@@ -38064,10 +38064,10 @@
         <v>22</v>
       </c>
       <c r="F1165" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1165" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1165" t="n">
         <v>660</v>
@@ -38096,10 +38096,10 @@
         <v>22</v>
       </c>
       <c r="F1166" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1166" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1166" t="n">
         <v>660</v>
@@ -38128,10 +38128,10 @@
         <v>22</v>
       </c>
       <c r="F1167" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1167" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1167" t="n">
         <v>660</v>
@@ -38160,10 +38160,10 @@
         <v>22</v>
       </c>
       <c r="F1168" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1168" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1168" t="n">
         <v>660</v>
@@ -38192,10 +38192,10 @@
         <v>22</v>
       </c>
       <c r="F1169" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1169" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1169" t="n">
         <v>660</v>
@@ -38224,10 +38224,10 @@
         <v>22</v>
       </c>
       <c r="F1170" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1170" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1170" t="n">
         <v>660</v>
@@ -38256,10 +38256,10 @@
         <v>22</v>
       </c>
       <c r="F1171" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1171" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1171" t="n">
         <v>660</v>
@@ -38288,10 +38288,10 @@
         <v>22</v>
       </c>
       <c r="F1172" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1172" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1172" t="n">
         <v>660</v>
@@ -38320,10 +38320,10 @@
         <v>22</v>
       </c>
       <c r="F1173" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1173" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1173" t="n">
         <v>660</v>
@@ -38352,10 +38352,10 @@
         <v>22</v>
       </c>
       <c r="F1174" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1174" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1174" t="n">
         <v>660</v>
@@ -38384,10 +38384,10 @@
         <v>22</v>
       </c>
       <c r="F1175" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1175" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1175" t="n">
         <v>660</v>
@@ -38416,10 +38416,10 @@
         <v>22</v>
       </c>
       <c r="F1176" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1176" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1176" t="n">
         <v>660</v>
@@ -38448,10 +38448,10 @@
         <v>22</v>
       </c>
       <c r="F1177" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1177" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1177" t="n">
         <v>660</v>
@@ -38480,10 +38480,10 @@
         <v>22</v>
       </c>
       <c r="F1178" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1178" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1178" t="n">
         <v>660</v>
@@ -38512,10 +38512,10 @@
         <v>22</v>
       </c>
       <c r="F1179" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1179" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1179" t="n">
         <v>660</v>
@@ -38544,10 +38544,10 @@
         <v>22</v>
       </c>
       <c r="F1180" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1180" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1180" t="n">
         <v>660</v>
@@ -38576,10 +38576,10 @@
         <v>22</v>
       </c>
       <c r="F1181" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1181" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1181" t="n">
         <v>660</v>
@@ -38608,10 +38608,10 @@
         <v>22</v>
       </c>
       <c r="F1182" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1182" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1182" t="n">
         <v>660</v>
@@ -38640,10 +38640,10 @@
         <v>22</v>
       </c>
       <c r="F1183" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1183" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1183" t="n">
         <v>660</v>
@@ -38672,10 +38672,10 @@
         <v>22</v>
       </c>
       <c r="F1184" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1184" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1184" t="n">
         <v>660</v>
@@ -38704,10 +38704,10 @@
         <v>22</v>
       </c>
       <c r="F1185" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1185" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1185" t="n">
         <v>660</v>
@@ -38736,10 +38736,10 @@
         <v>22</v>
       </c>
       <c r="F1186" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1186" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1186" t="n">
         <v>660</v>
@@ -38768,10 +38768,10 @@
         <v>22</v>
       </c>
       <c r="F1187" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1187" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1187" t="n">
         <v>660</v>
@@ -38800,10 +38800,10 @@
         <v>22</v>
       </c>
       <c r="F1188" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1188" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1188" t="n">
         <v>660</v>
@@ -38832,10 +38832,10 @@
         <v>22</v>
       </c>
       <c r="F1189" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1189" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1189" t="n">
         <v>660</v>
@@ -38864,10 +38864,10 @@
         <v>22</v>
       </c>
       <c r="F1190" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1190" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1190" t="n">
         <v>660</v>
@@ -38896,10 +38896,10 @@
         <v>22</v>
       </c>
       <c r="F1191" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1191" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1191" t="n">
         <v>660</v>
@@ -38928,10 +38928,10 @@
         <v>22</v>
       </c>
       <c r="F1192" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1192" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1192" t="n">
         <v>660</v>
@@ -38960,10 +38960,10 @@
         <v>22</v>
       </c>
       <c r="F1193" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1193" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1193" t="n">
         <v>660</v>
@@ -38992,10 +38992,10 @@
         <v>22</v>
       </c>
       <c r="F1194" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1194" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1194" t="n">
         <v>660</v>
@@ -39024,10 +39024,10 @@
         <v>22</v>
       </c>
       <c r="F1195" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1195" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1195" t="n">
         <v>660</v>
@@ -39056,10 +39056,10 @@
         <v>22</v>
       </c>
       <c r="F1196" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1196" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1196" t="n">
         <v>660</v>
@@ -39088,10 +39088,10 @@
         <v>22</v>
       </c>
       <c r="F1197" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1197" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1197" t="n">
         <v>660</v>
@@ -39120,10 +39120,10 @@
         <v>22</v>
       </c>
       <c r="F1198" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1198" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1198" t="n">
         <v>660</v>
@@ -39152,10 +39152,10 @@
         <v>22</v>
       </c>
       <c r="F1199" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1199" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1199" t="n">
         <v>660</v>
@@ -39184,10 +39184,10 @@
         <v>22</v>
       </c>
       <c r="F1200" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1200" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1200" t="n">
         <v>660</v>
@@ -39216,10 +39216,10 @@
         <v>22</v>
       </c>
       <c r="F1201" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1201" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1201" t="n">
         <v>660</v>
@@ -39248,10 +39248,10 @@
         <v>17</v>
       </c>
       <c r="F1202" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1202" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1202" t="n">
         <v>510</v>
@@ -39280,10 +39280,10 @@
         <v>22</v>
       </c>
       <c r="F1203" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1203" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1203" t="n">
         <v>660</v>
@@ -39312,10 +39312,10 @@
         <v>22</v>
       </c>
       <c r="F1204" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1204" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1204" t="n">
         <v>660</v>
@@ -39344,10 +39344,10 @@
         <v>22</v>
       </c>
       <c r="F1205" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1205" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1205" t="n">
         <v>660</v>
@@ -39376,10 +39376,10 @@
         <v>22</v>
       </c>
       <c r="F1206" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1206" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1206" t="n">
         <v>660</v>
@@ -39408,10 +39408,10 @@
         <v>22</v>
       </c>
       <c r="F1207" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1207" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1207" t="n">
         <v>660</v>
@@ -39440,10 +39440,10 @@
         <v>22</v>
       </c>
       <c r="F1208" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1208" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1208" t="n">
         <v>660</v>
@@ -39472,10 +39472,10 @@
         <v>22</v>
       </c>
       <c r="F1209" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1209" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1209" t="n">
         <v>660</v>
@@ -39504,10 +39504,10 @@
         <v>22</v>
       </c>
       <c r="F1210" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1210" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1210" t="n">
         <v>660</v>
@@ -39536,10 +39536,10 @@
         <v>22</v>
       </c>
       <c r="F1211" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1211" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1211" t="n">
         <v>660</v>
@@ -39568,10 +39568,10 @@
         <v>17</v>
       </c>
       <c r="F1212" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1212" t="n">
-        <v>680</v>
+        <v>637.5</v>
       </c>
       <c r="H1212" t="n">
         <v>510</v>
@@ -39600,10 +39600,10 @@
         <v>22</v>
       </c>
       <c r="F1213" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1213" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1213" t="n">
         <v>660</v>
@@ -39632,10 +39632,10 @@
         <v>22</v>
       </c>
       <c r="F1214" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1214" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1214" t="n">
         <v>660</v>
@@ -39664,10 +39664,10 @@
         <v>22</v>
       </c>
       <c r="F1215" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1215" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1215" t="n">
         <v>660</v>
@@ -39696,10 +39696,10 @@
         <v>22</v>
       </c>
       <c r="F1216" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1216" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1216" t="n">
         <v>660</v>
@@ -39728,10 +39728,10 @@
         <v>22</v>
       </c>
       <c r="F1217" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1217" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1217" t="n">
         <v>660</v>
@@ -39760,10 +39760,10 @@
         <v>22</v>
       </c>
       <c r="F1218" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1218" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1218" t="n">
         <v>660</v>
@@ -39792,10 +39792,10 @@
         <v>22</v>
       </c>
       <c r="F1219" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1219" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1219" t="n">
         <v>660</v>
@@ -39824,10 +39824,10 @@
         <v>22</v>
       </c>
       <c r="F1220" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1220" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1220" t="n">
         <v>660</v>
@@ -39856,10 +39856,10 @@
         <v>22</v>
       </c>
       <c r="F1221" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1221" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1221" t="n">
         <v>660</v>
@@ -39888,10 +39888,10 @@
         <v>22</v>
       </c>
       <c r="F1222" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1222" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1222" t="n">
         <v>660</v>
@@ -39920,10 +39920,10 @@
         <v>22</v>
       </c>
       <c r="F1223" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1223" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1223" t="n">
         <v>660</v>
@@ -39952,10 +39952,10 @@
         <v>22</v>
       </c>
       <c r="F1224" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1224" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1224" t="n">
         <v>660</v>
@@ -39984,10 +39984,10 @@
         <v>22</v>
       </c>
       <c r="F1225" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1225" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1225" t="n">
         <v>660</v>
@@ -40016,10 +40016,10 @@
         <v>22</v>
       </c>
       <c r="F1226" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1226" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1226" t="n">
         <v>660</v>
@@ -40048,10 +40048,10 @@
         <v>22</v>
       </c>
       <c r="F1227" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1227" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1227" t="n">
         <v>660</v>
@@ -40080,10 +40080,10 @@
         <v>22</v>
       </c>
       <c r="F1228" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1228" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1228" t="n">
         <v>660</v>
@@ -40112,10 +40112,10 @@
         <v>22</v>
       </c>
       <c r="F1229" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1229" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1229" t="n">
         <v>660</v>
@@ -40144,10 +40144,10 @@
         <v>22</v>
       </c>
       <c r="F1230" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1230" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1230" t="n">
         <v>660</v>
@@ -40176,10 +40176,10 @@
         <v>22</v>
       </c>
       <c r="F1231" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1231" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1231" t="n">
         <v>660</v>
@@ -40208,10 +40208,10 @@
         <v>22</v>
       </c>
       <c r="F1232" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1232" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1232" t="n">
         <v>660</v>
@@ -40240,10 +40240,10 @@
         <v>22</v>
       </c>
       <c r="F1233" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1233" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1233" t="n">
         <v>660</v>
@@ -40272,10 +40272,10 @@
         <v>22</v>
       </c>
       <c r="F1234" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1234" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1234" t="n">
         <v>660</v>
@@ -40304,10 +40304,10 @@
         <v>22</v>
       </c>
       <c r="F1235" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1235" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1235" t="n">
         <v>660</v>
@@ -40336,10 +40336,10 @@
         <v>22</v>
       </c>
       <c r="F1236" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1236" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1236" t="n">
         <v>660</v>
@@ -40368,10 +40368,10 @@
         <v>22</v>
       </c>
       <c r="F1237" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1237" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1237" t="n">
         <v>660</v>
@@ -40400,10 +40400,10 @@
         <v>22</v>
       </c>
       <c r="F1238" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1238" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1238" t="n">
         <v>660</v>
@@ -40432,10 +40432,10 @@
         <v>22</v>
       </c>
       <c r="F1239" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1239" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1239" t="n">
         <v>660</v>
@@ -40464,10 +40464,10 @@
         <v>22</v>
       </c>
       <c r="F1240" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1240" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1240" t="n">
         <v>660</v>
@@ -40496,10 +40496,10 @@
         <v>22</v>
       </c>
       <c r="F1241" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1241" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1241" t="n">
         <v>660</v>
@@ -40528,10 +40528,10 @@
         <v>22</v>
       </c>
       <c r="F1242" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1242" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1242" t="n">
         <v>660</v>
@@ -40560,10 +40560,10 @@
         <v>22</v>
       </c>
       <c r="F1243" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1243" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1243" t="n">
         <v>660</v>
@@ -40592,10 +40592,10 @@
         <v>7</v>
       </c>
       <c r="F1244" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1244" t="n">
-        <v>280</v>
+        <v>262.5</v>
       </c>
       <c r="H1244" t="n">
         <v>210</v>
@@ -40624,10 +40624,10 @@
         <v>22</v>
       </c>
       <c r="F1245" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1245" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1245" t="n">
         <v>660</v>
@@ -40656,10 +40656,10 @@
         <v>22</v>
       </c>
       <c r="F1246" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1246" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1246" t="n">
         <v>660</v>
@@ -40688,10 +40688,10 @@
         <v>22</v>
       </c>
       <c r="F1247" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1247" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1247" t="n">
         <v>660</v>
@@ -40720,10 +40720,10 @@
         <v>22</v>
       </c>
       <c r="F1248" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1248" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1248" t="n">
         <v>660</v>
@@ -40752,10 +40752,10 @@
         <v>2</v>
       </c>
       <c r="F1249" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1249" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H1249" t="n">
         <v>60</v>
@@ -40784,10 +40784,10 @@
         <v>22</v>
       </c>
       <c r="F1250" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1250" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1250" t="n">
         <v>660</v>
@@ -40816,10 +40816,10 @@
         <v>22</v>
       </c>
       <c r="F1251" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1251" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1251" t="n">
         <v>660</v>
@@ -40848,10 +40848,10 @@
         <v>22</v>
       </c>
       <c r="F1252" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1252" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1252" t="n">
         <v>660</v>
@@ -40880,10 +40880,10 @@
         <v>22</v>
       </c>
       <c r="F1253" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1253" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1253" t="n">
         <v>660</v>
@@ -40912,10 +40912,10 @@
         <v>22</v>
       </c>
       <c r="F1254" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1254" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1254" t="n">
         <v>660</v>
@@ -40944,10 +40944,10 @@
         <v>22</v>
       </c>
       <c r="F1255" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1255" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1255" t="n">
         <v>660</v>
@@ -40976,10 +40976,10 @@
         <v>22</v>
       </c>
       <c r="F1256" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1256" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1256" t="n">
         <v>660</v>
@@ -41008,10 +41008,10 @@
         <v>22</v>
       </c>
       <c r="F1257" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1257" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1257" t="n">
         <v>660</v>
@@ -41040,10 +41040,10 @@
         <v>22</v>
       </c>
       <c r="F1258" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1258" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1258" t="n">
         <v>660</v>
@@ -41072,10 +41072,10 @@
         <v>22</v>
       </c>
       <c r="F1259" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1259" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1259" t="n">
         <v>660</v>
@@ -41104,10 +41104,10 @@
         <v>7</v>
       </c>
       <c r="F1260" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1260" t="n">
-        <v>280</v>
+        <v>262.5</v>
       </c>
       <c r="H1260" t="n">
         <v>210</v>
@@ -41136,10 +41136,10 @@
         <v>22</v>
       </c>
       <c r="F1261" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1261" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1261" t="n">
         <v>660</v>
@@ -41168,10 +41168,10 @@
         <v>22</v>
       </c>
       <c r="F1262" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1262" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1262" t="n">
         <v>660</v>
@@ -41200,10 +41200,10 @@
         <v>22</v>
       </c>
       <c r="F1263" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1263" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1263" t="n">
         <v>660</v>
@@ -41232,10 +41232,10 @@
         <v>22</v>
       </c>
       <c r="F1264" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1264" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1264" t="n">
         <v>660</v>
@@ -41264,10 +41264,10 @@
         <v>22</v>
       </c>
       <c r="F1265" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1265" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1265" t="n">
         <v>660</v>
@@ -41296,10 +41296,10 @@
         <v>22</v>
       </c>
       <c r="F1266" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1266" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1266" t="n">
         <v>660</v>
@@ -41328,10 +41328,10 @@
         <v>22</v>
       </c>
       <c r="F1267" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1267" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1267" t="n">
         <v>660</v>
@@ -41360,10 +41360,10 @@
         <v>22</v>
       </c>
       <c r="F1268" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1268" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1268" t="n">
         <v>660</v>
@@ -41392,10 +41392,10 @@
         <v>22</v>
       </c>
       <c r="F1269" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1269" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1269" t="n">
         <v>660</v>
@@ -41424,10 +41424,10 @@
         <v>22</v>
       </c>
       <c r="F1270" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1270" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1270" t="n">
         <v>660</v>
@@ -41456,10 +41456,10 @@
         <v>22</v>
       </c>
       <c r="F1271" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1271" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1271" t="n">
         <v>660</v>
@@ -41488,10 +41488,10 @@
         <v>22</v>
       </c>
       <c r="F1272" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1272" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1272" t="n">
         <v>660</v>
@@ -41520,10 +41520,10 @@
         <v>22</v>
       </c>
       <c r="F1273" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1273" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1273" t="n">
         <v>660</v>
@@ -41552,10 +41552,10 @@
         <v>22</v>
       </c>
       <c r="F1274" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1274" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1274" t="n">
         <v>660</v>
@@ -41584,10 +41584,10 @@
         <v>22</v>
       </c>
       <c r="F1275" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1275" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1275" t="n">
         <v>660</v>
@@ -41616,10 +41616,10 @@
         <v>22</v>
       </c>
       <c r="F1276" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1276" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1276" t="n">
         <v>660</v>
@@ -41648,10 +41648,10 @@
         <v>22</v>
       </c>
       <c r="F1277" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1277" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1277" t="n">
         <v>660</v>
@@ -41680,10 +41680,10 @@
         <v>22</v>
       </c>
       <c r="F1278" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1278" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1278" t="n">
         <v>660</v>
@@ -41712,10 +41712,10 @@
         <v>22</v>
       </c>
       <c r="F1279" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1279" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1279" t="n">
         <v>660</v>
@@ -41744,10 +41744,10 @@
         <v>22</v>
       </c>
       <c r="F1280" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1280" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1280" t="n">
         <v>660</v>
@@ -41776,10 +41776,10 @@
         <v>22</v>
       </c>
       <c r="F1281" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1281" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1281" t="n">
         <v>660</v>
@@ -41808,10 +41808,10 @@
         <v>22</v>
       </c>
       <c r="F1282" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1282" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1282" t="n">
         <v>660</v>
@@ -41840,10 +41840,10 @@
         <v>22</v>
       </c>
       <c r="F1283" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1283" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1283" t="n">
         <v>660</v>
@@ -41872,10 +41872,10 @@
         <v>22</v>
       </c>
       <c r="F1284" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1284" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1284" t="n">
         <v>660</v>
@@ -41904,10 +41904,10 @@
         <v>22</v>
       </c>
       <c r="F1285" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1285" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1285" t="n">
         <v>660</v>
@@ -41936,10 +41936,10 @@
         <v>22</v>
       </c>
       <c r="F1286" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1286" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1286" t="n">
         <v>660</v>
@@ -41968,10 +41968,10 @@
         <v>22</v>
       </c>
       <c r="F1287" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1287" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1287" t="n">
         <v>660</v>
@@ -42000,10 +42000,10 @@
         <v>22</v>
       </c>
       <c r="F1288" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1288" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1288" t="n">
         <v>660</v>
@@ -42032,10 +42032,10 @@
         <v>22</v>
       </c>
       <c r="F1289" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1289" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1289" t="n">
         <v>660</v>
@@ -42064,10 +42064,10 @@
         <v>22</v>
       </c>
       <c r="F1290" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1290" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1290" t="n">
         <v>660</v>
@@ -42096,10 +42096,10 @@
         <v>22</v>
       </c>
       <c r="F1291" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1291" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1291" t="n">
         <v>660</v>
@@ -42128,10 +42128,10 @@
         <v>22</v>
       </c>
       <c r="F1292" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1292" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1292" t="n">
         <v>660</v>
@@ -42160,10 +42160,10 @@
         <v>22</v>
       </c>
       <c r="F1293" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1293" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1293" t="n">
         <v>660</v>
@@ -42192,10 +42192,10 @@
         <v>22</v>
       </c>
       <c r="F1294" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1294" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1294" t="n">
         <v>660</v>
@@ -42224,10 +42224,10 @@
         <v>22</v>
       </c>
       <c r="F1295" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1295" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1295" t="n">
         <v>660</v>
@@ -42256,10 +42256,10 @@
         <v>22</v>
       </c>
       <c r="F1296" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1296" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1296" t="n">
         <v>660</v>
@@ -42288,10 +42288,10 @@
         <v>22</v>
       </c>
       <c r="F1297" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1297" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1297" t="n">
         <v>660</v>
@@ -42320,10 +42320,10 @@
         <v>22</v>
       </c>
       <c r="F1298" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1298" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1298" t="n">
         <v>660</v>
@@ -42352,10 +42352,10 @@
         <v>22</v>
       </c>
       <c r="F1299" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1299" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1299" t="n">
         <v>660</v>
@@ -42384,10 +42384,10 @@
         <v>22</v>
       </c>
       <c r="F1300" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1300" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1300" t="n">
         <v>660</v>
@@ -42416,10 +42416,10 @@
         <v>22</v>
       </c>
       <c r="F1301" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1301" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1301" t="n">
         <v>660</v>
@@ -42448,10 +42448,10 @@
         <v>22</v>
       </c>
       <c r="F1302" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1302" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1302" t="n">
         <v>660</v>
@@ -42480,10 +42480,10 @@
         <v>22</v>
       </c>
       <c r="F1303" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1303" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1303" t="n">
         <v>660</v>
@@ -42512,7 +42512,7 @@
         <v>0</v>
       </c>
       <c r="F1304" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1304" t="n">
         <v>0</v>
@@ -42548,10 +42548,10 @@
         <v>22</v>
       </c>
       <c r="F1305" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1305" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1305" t="n">
         <v>660</v>
@@ -42580,10 +42580,10 @@
         <v>22</v>
       </c>
       <c r="F1306" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1306" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1306" t="n">
         <v>660</v>
@@ -42612,10 +42612,10 @@
         <v>22</v>
       </c>
       <c r="F1307" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1307" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1307" t="n">
         <v>660</v>
@@ -42644,10 +42644,10 @@
         <v>22</v>
       </c>
       <c r="F1308" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1308" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1308" t="n">
         <v>660</v>
@@ -42676,10 +42676,10 @@
         <v>22</v>
       </c>
       <c r="F1309" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1309" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1309" t="n">
         <v>660</v>
@@ -42708,10 +42708,10 @@
         <v>22</v>
       </c>
       <c r="F1310" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1310" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1310" t="n">
         <v>660</v>
@@ -42740,10 +42740,10 @@
         <v>22</v>
       </c>
       <c r="F1311" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1311" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1311" t="n">
         <v>660</v>
@@ -42772,10 +42772,10 @@
         <v>22</v>
       </c>
       <c r="F1312" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1312" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1312" t="n">
         <v>660</v>
@@ -42804,10 +42804,10 @@
         <v>22</v>
       </c>
       <c r="F1313" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1313" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1313" t="n">
         <v>660</v>
@@ -42836,10 +42836,10 @@
         <v>22</v>
       </c>
       <c r="F1314" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1314" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1314" t="n">
         <v>660</v>
@@ -42868,10 +42868,10 @@
         <v>22</v>
       </c>
       <c r="F1315" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1315" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1315" t="n">
         <v>660</v>
@@ -42900,10 +42900,10 @@
         <v>22</v>
       </c>
       <c r="F1316" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1316" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1316" t="n">
         <v>660</v>
@@ -42932,10 +42932,10 @@
         <v>22</v>
       </c>
       <c r="F1317" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1317" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1317" t="n">
         <v>660</v>
@@ -42964,10 +42964,10 @@
         <v>22</v>
       </c>
       <c r="F1318" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1318" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1318" t="n">
         <v>660</v>
@@ -42996,10 +42996,10 @@
         <v>22</v>
       </c>
       <c r="F1319" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1319" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1319" t="n">
         <v>660</v>
@@ -43028,10 +43028,10 @@
         <v>22</v>
       </c>
       <c r="F1320" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1320" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1320" t="n">
         <v>660</v>
@@ -43060,10 +43060,10 @@
         <v>22</v>
       </c>
       <c r="F1321" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1321" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1321" t="n">
         <v>660</v>
@@ -43092,10 +43092,10 @@
         <v>22</v>
       </c>
       <c r="F1322" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1322" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1322" t="n">
         <v>660</v>
@@ -43124,10 +43124,10 @@
         <v>22</v>
       </c>
       <c r="F1323" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1323" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1323" t="n">
         <v>660</v>
@@ -43156,10 +43156,10 @@
         <v>22</v>
       </c>
       <c r="F1324" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1324" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1324" t="n">
         <v>660</v>
@@ -43188,10 +43188,10 @@
         <v>22</v>
       </c>
       <c r="F1325" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1325" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1325" t="n">
         <v>660</v>
@@ -43220,10 +43220,10 @@
         <v>22</v>
       </c>
       <c r="F1326" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1326" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1326" t="n">
         <v>660</v>
@@ -43252,10 +43252,10 @@
         <v>22</v>
       </c>
       <c r="F1327" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1327" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1327" t="n">
         <v>660</v>
@@ -43284,10 +43284,10 @@
         <v>22</v>
       </c>
       <c r="F1328" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1328" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1328" t="n">
         <v>660</v>
@@ -43316,10 +43316,10 @@
         <v>22</v>
       </c>
       <c r="F1329" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1329" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1329" t="n">
         <v>660</v>
@@ -43348,10 +43348,10 @@
         <v>22</v>
       </c>
       <c r="F1330" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1330" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1330" t="n">
         <v>660</v>
@@ -43380,10 +43380,10 @@
         <v>22</v>
       </c>
       <c r="F1331" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1331" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1331" t="n">
         <v>660</v>
@@ -43412,10 +43412,10 @@
         <v>22</v>
       </c>
       <c r="F1332" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1332" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1332" t="n">
         <v>660</v>
@@ -43444,10 +43444,10 @@
         <v>22</v>
       </c>
       <c r="F1333" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1333" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1333" t="n">
         <v>660</v>
@@ -43476,10 +43476,10 @@
         <v>22</v>
       </c>
       <c r="F1334" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1334" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1334" t="n">
         <v>660</v>
@@ -43508,10 +43508,10 @@
         <v>22</v>
       </c>
       <c r="F1335" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1335" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1335" t="n">
         <v>660</v>
@@ -43540,10 +43540,10 @@
         <v>22</v>
       </c>
       <c r="F1336" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1336" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1336" t="n">
         <v>660</v>
@@ -43572,10 +43572,10 @@
         <v>22</v>
       </c>
       <c r="F1337" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1337" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1337" t="n">
         <v>660</v>
@@ -43604,10 +43604,10 @@
         <v>22</v>
       </c>
       <c r="F1338" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1338" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1338" t="n">
         <v>660</v>
@@ -43636,10 +43636,10 @@
         <v>22</v>
       </c>
       <c r="F1339" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1339" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1339" t="n">
         <v>660</v>
@@ -43668,10 +43668,10 @@
         <v>22</v>
       </c>
       <c r="F1340" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1340" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1340" t="n">
         <v>660</v>
@@ -43700,10 +43700,10 @@
         <v>22</v>
       </c>
       <c r="F1341" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1341" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1341" t="n">
         <v>660</v>
@@ -43732,10 +43732,10 @@
         <v>22</v>
       </c>
       <c r="F1342" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1342" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1342" t="n">
         <v>660</v>
@@ -43764,10 +43764,10 @@
         <v>22</v>
       </c>
       <c r="F1343" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1343" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1343" t="n">
         <v>660</v>
@@ -43796,10 +43796,10 @@
         <v>22</v>
       </c>
       <c r="F1344" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1344" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1344" t="n">
         <v>660</v>
@@ -43828,10 +43828,10 @@
         <v>22</v>
       </c>
       <c r="F1345" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1345" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1345" t="n">
         <v>660</v>
@@ -43860,10 +43860,10 @@
         <v>22</v>
       </c>
       <c r="F1346" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1346" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1346" t="n">
         <v>660</v>
@@ -43892,10 +43892,10 @@
         <v>22</v>
       </c>
       <c r="F1347" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1347" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1347" t="n">
         <v>660</v>
@@ -43924,10 +43924,10 @@
         <v>22</v>
       </c>
       <c r="F1348" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1348" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1348" t="n">
         <v>660</v>
@@ -43956,10 +43956,10 @@
         <v>22</v>
       </c>
       <c r="F1349" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1349" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1349" t="n">
         <v>660</v>
@@ -43988,10 +43988,10 @@
         <v>22</v>
       </c>
       <c r="F1350" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1350" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1350" t="n">
         <v>660</v>
@@ -44020,10 +44020,10 @@
         <v>22</v>
       </c>
       <c r="F1351" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1351" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1351" t="n">
         <v>660</v>
@@ -44052,10 +44052,10 @@
         <v>22</v>
       </c>
       <c r="F1352" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1352" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1352" t="n">
         <v>660</v>
@@ -44084,10 +44084,10 @@
         <v>2</v>
       </c>
       <c r="F1353" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1353" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H1353" t="n">
         <v>60</v>
@@ -44116,10 +44116,10 @@
         <v>22</v>
       </c>
       <c r="F1354" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1354" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="n">
         <v>660</v>
@@ -44148,10 +44148,10 @@
         <v>22</v>
       </c>
       <c r="F1355" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1355" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1355" t="n">
         <v>660</v>
@@ -44180,10 +44180,10 @@
         <v>22</v>
       </c>
       <c r="F1356" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1356" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1356" t="n">
         <v>660</v>
@@ -44212,10 +44212,10 @@
         <v>22</v>
       </c>
       <c r="F1357" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1357" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1357" t="n">
         <v>660</v>
@@ -44244,10 +44244,10 @@
         <v>22</v>
       </c>
       <c r="F1358" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1358" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1358" t="n">
         <v>660</v>
@@ -44276,10 +44276,10 @@
         <v>22</v>
       </c>
       <c r="F1359" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1359" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1359" t="n">
         <v>660</v>
@@ -44308,10 +44308,10 @@
         <v>22</v>
       </c>
       <c r="F1360" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1360" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1360" t="n">
         <v>660</v>
@@ -44340,10 +44340,10 @@
         <v>22</v>
       </c>
       <c r="F1361" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1361" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1361" t="n">
         <v>660</v>
@@ -44372,10 +44372,10 @@
         <v>12</v>
       </c>
       <c r="F1362" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1362" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H1362" t="n">
         <v>360</v>
@@ -44404,10 +44404,10 @@
         <v>22</v>
       </c>
       <c r="F1363" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1363" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1363" t="n">
         <v>660</v>
@@ -44436,10 +44436,10 @@
         <v>22</v>
       </c>
       <c r="F1364" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1364" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1364" t="n">
         <v>660</v>
@@ -44468,10 +44468,10 @@
         <v>22</v>
       </c>
       <c r="F1365" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1365" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1365" t="n">
         <v>660</v>
@@ -44500,10 +44500,10 @@
         <v>12</v>
       </c>
       <c r="F1366" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1366" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H1366" t="n">
         <v>360</v>
@@ -44532,10 +44532,10 @@
         <v>22</v>
       </c>
       <c r="F1367" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1367" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1367" t="n">
         <v>660</v>
@@ -44564,10 +44564,10 @@
         <v>22</v>
       </c>
       <c r="F1368" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1368" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1368" t="n">
         <v>660</v>
@@ -44596,10 +44596,10 @@
         <v>22</v>
       </c>
       <c r="F1369" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1369" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1369" t="n">
         <v>660</v>
@@ -44628,10 +44628,10 @@
         <v>12</v>
       </c>
       <c r="F1370" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1370" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H1370" t="n">
         <v>360</v>
@@ -44660,10 +44660,10 @@
         <v>7</v>
       </c>
       <c r="F1371" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1371" t="n">
-        <v>280</v>
+        <v>262.5</v>
       </c>
       <c r="H1371" t="n">
         <v>210</v>
@@ -44692,10 +44692,10 @@
         <v>22</v>
       </c>
       <c r="F1372" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1372" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1372" t="n">
         <v>660</v>
@@ -44724,10 +44724,10 @@
         <v>22</v>
       </c>
       <c r="F1373" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1373" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1373" t="n">
         <v>660</v>
@@ -44756,10 +44756,10 @@
         <v>22</v>
       </c>
       <c r="F1374" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1374" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1374" t="n">
         <v>660</v>
@@ -44788,10 +44788,10 @@
         <v>22</v>
       </c>
       <c r="F1375" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1375" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1375" t="n">
         <v>660</v>
@@ -44820,10 +44820,10 @@
         <v>22</v>
       </c>
       <c r="F1376" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1376" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1376" t="n">
         <v>660</v>
@@ -44852,10 +44852,10 @@
         <v>22</v>
       </c>
       <c r="F1377" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1377" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1377" t="n">
         <v>660</v>
@@ -44884,10 +44884,10 @@
         <v>22</v>
       </c>
       <c r="F1378" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1378" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1378" t="n">
         <v>660</v>
@@ -44916,10 +44916,10 @@
         <v>22</v>
       </c>
       <c r="F1379" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1379" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1379" t="n">
         <v>660</v>
@@ -44948,10 +44948,10 @@
         <v>22</v>
       </c>
       <c r="F1380" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1380" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1380" t="n">
         <v>660</v>
@@ -44980,10 +44980,10 @@
         <v>22</v>
       </c>
       <c r="F1381" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1381" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1381" t="n">
         <v>660</v>
@@ -45012,10 +45012,10 @@
         <v>22</v>
       </c>
       <c r="F1382" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1382" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1382" t="n">
         <v>660</v>
@@ -45044,10 +45044,10 @@
         <v>22</v>
       </c>
       <c r="F1383" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1383" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1383" t="n">
         <v>660</v>
@@ -45076,10 +45076,10 @@
         <v>22</v>
       </c>
       <c r="F1384" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1384" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1384" t="n">
         <v>660</v>
@@ -45108,10 +45108,10 @@
         <v>22</v>
       </c>
       <c r="F1385" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1385" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1385" t="n">
         <v>660</v>
@@ -45140,10 +45140,10 @@
         <v>22</v>
       </c>
       <c r="F1386" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1386" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1386" t="n">
         <v>660</v>
@@ -45172,10 +45172,10 @@
         <v>22</v>
       </c>
       <c r="F1387" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1387" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1387" t="n">
         <v>660</v>
@@ -45204,10 +45204,10 @@
         <v>2</v>
       </c>
       <c r="F1388" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1388" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H1388" t="n">
         <v>60</v>
@@ -45236,10 +45236,10 @@
         <v>22</v>
       </c>
       <c r="F1389" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1389" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1389" t="n">
         <v>660</v>
@@ -45272,10 +45272,10 @@
         <v>22</v>
       </c>
       <c r="F1390" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1390" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1390" t="n">
         <v>660</v>
@@ -45304,10 +45304,10 @@
         <v>22</v>
       </c>
       <c r="F1391" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1391" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1391" t="n">
         <v>660</v>
@@ -45336,10 +45336,10 @@
         <v>12</v>
       </c>
       <c r="F1392" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1392" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H1392" t="n">
         <v>360</v>
@@ -45368,10 +45368,10 @@
         <v>22</v>
       </c>
       <c r="F1393" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1393" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1393" t="n">
         <v>660</v>
@@ -45400,10 +45400,10 @@
         <v>22</v>
       </c>
       <c r="F1394" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1394" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1394" t="n">
         <v>660</v>
@@ -45432,10 +45432,10 @@
         <v>7</v>
       </c>
       <c r="F1395" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1395" t="n">
-        <v>280</v>
+        <v>262.5</v>
       </c>
       <c r="H1395" t="n">
         <v>210</v>
@@ -45464,10 +45464,10 @@
         <v>22</v>
       </c>
       <c r="F1396" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1396" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1396" t="n">
         <v>660</v>
@@ -45496,10 +45496,10 @@
         <v>22</v>
       </c>
       <c r="F1397" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G1397" t="n">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="H1397" t="n">
         <v>660</v>
